--- a/tests/advanced/randomized_tests/denprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/denprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="71">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -102,6 +102,126 @@
   </si>
   <si>
     <t>run 9</t>
+  </si>
+  <si>
+    <t>run 10</t>
+  </si>
+  <si>
+    <t>run 11</t>
+  </si>
+  <si>
+    <t>run 12</t>
+  </si>
+  <si>
+    <t>run 13</t>
+  </si>
+  <si>
+    <t>run 14</t>
+  </si>
+  <si>
+    <t>run 15</t>
+  </si>
+  <si>
+    <t>run 16</t>
+  </si>
+  <si>
+    <t>run 17</t>
+  </si>
+  <si>
+    <t>run 18</t>
+  </si>
+  <si>
+    <t>run 19</t>
+  </si>
+  <si>
+    <t>run 20</t>
+  </si>
+  <si>
+    <t>run 21</t>
+  </si>
+  <si>
+    <t>run 22</t>
+  </si>
+  <si>
+    <t>run 23</t>
+  </si>
+  <si>
+    <t>run 24</t>
+  </si>
+  <si>
+    <t>run 25</t>
+  </si>
+  <si>
+    <t>run 26</t>
+  </si>
+  <si>
+    <t>run 27</t>
+  </si>
+  <si>
+    <t>run 28</t>
+  </si>
+  <si>
+    <t>run 29</t>
+  </si>
+  <si>
+    <t>run 30</t>
+  </si>
+  <si>
+    <t>run 31</t>
+  </si>
+  <si>
+    <t>run 32</t>
+  </si>
+  <si>
+    <t>run 33</t>
+  </si>
+  <si>
+    <t>run 34</t>
+  </si>
+  <si>
+    <t>run 35</t>
+  </si>
+  <si>
+    <t>run 36</t>
+  </si>
+  <si>
+    <t>run 37</t>
+  </si>
+  <si>
+    <t>run 38</t>
+  </si>
+  <si>
+    <t>run 39</t>
+  </si>
+  <si>
+    <t>run 40</t>
+  </si>
+  <si>
+    <t>run 41</t>
+  </si>
+  <si>
+    <t>run 42</t>
+  </si>
+  <si>
+    <t>run 43</t>
+  </si>
+  <si>
+    <t>run 44</t>
+  </si>
+  <si>
+    <t>run 45</t>
+  </si>
+  <si>
+    <t>run 46</t>
+  </si>
+  <si>
+    <t>run 47</t>
+  </si>
+  <si>
+    <t>run 48</t>
+  </si>
+  <si>
+    <t>run 49</t>
   </si>
   <si>
     <t>Average</t>
@@ -465,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>353.852</v>
+        <v>200.018</v>
       </c>
       <c r="C2">
-        <v>353.852</v>
+        <v>200.018</v>
       </c>
       <c r="D2">
-        <v>353.852</v>
+        <v>200.018</v>
       </c>
       <c r="E2">
-        <v>353.852</v>
+        <v>200.018</v>
       </c>
       <c r="F2">
-        <v>353.852</v>
+        <v>200.018</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -543,19 +663,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>362.6419999999999</v>
+        <v>163.528</v>
       </c>
       <c r="C3">
-        <v>362.6419999999999</v>
+        <v>163.528</v>
       </c>
       <c r="D3">
-        <v>362.642</v>
+        <v>163.528</v>
       </c>
       <c r="E3">
-        <v>362.642</v>
+        <v>163.528</v>
       </c>
       <c r="F3">
-        <v>362.6419999999999</v>
+        <v>163.528</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -578,19 +698,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>315.948</v>
+        <v>158.044</v>
       </c>
       <c r="C4">
-        <v>315.948</v>
+        <v>158.044</v>
       </c>
       <c r="D4">
-        <v>315.948</v>
+        <v>158.044</v>
       </c>
       <c r="E4">
-        <v>315.948</v>
+        <v>158.044</v>
       </c>
       <c r="F4">
-        <v>315.948</v>
+        <v>158.044</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -613,19 +733,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>353.5719999999999</v>
+        <v>190.076</v>
       </c>
       <c r="C5">
-        <v>353.5719999999999</v>
+        <v>190.076</v>
       </c>
       <c r="D5">
-        <v>353.5719999999999</v>
+        <v>190.076</v>
       </c>
       <c r="E5">
-        <v>353.5719999999999</v>
+        <v>190.076</v>
       </c>
       <c r="F5">
-        <v>353.5719999999999</v>
+        <v>190.076</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -648,19 +768,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>365.5079999999999</v>
+        <v>203.7</v>
       </c>
       <c r="C6">
-        <v>365.5079999999999</v>
+        <v>203.7</v>
       </c>
       <c r="D6">
-        <v>365.5079999999999</v>
+        <v>203.7</v>
       </c>
       <c r="E6">
-        <v>365.5079999999999</v>
+        <v>203.7</v>
       </c>
       <c r="F6">
-        <v>365.5079999999999</v>
+        <v>203.7</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -683,19 +803,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>314.954</v>
+        <v>221.324</v>
       </c>
       <c r="C7">
-        <v>314.954</v>
+        <v>221.324</v>
       </c>
       <c r="D7">
-        <v>314.954</v>
+        <v>221.324</v>
       </c>
       <c r="E7">
-        <v>314.954</v>
+        <v>221.324</v>
       </c>
       <c r="F7">
-        <v>314.954</v>
+        <v>221.324</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -718,19 +838,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>359.126</v>
+        <v>225.738</v>
       </c>
       <c r="C8">
-        <v>359.126</v>
+        <v>225.738</v>
       </c>
       <c r="D8">
-        <v>359.126</v>
+        <v>225.738</v>
       </c>
       <c r="E8">
-        <v>359.126</v>
+        <v>225.738</v>
       </c>
       <c r="F8">
-        <v>359.126</v>
+        <v>225.738</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -753,19 +873,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>316.744</v>
+        <v>213.318</v>
       </c>
       <c r="C9">
-        <v>316.744</v>
+        <v>213.318</v>
       </c>
       <c r="D9">
-        <v>316.744</v>
+        <v>213.318</v>
       </c>
       <c r="E9">
-        <v>316.744</v>
+        <v>213.318</v>
       </c>
       <c r="F9">
-        <v>316.744</v>
+        <v>213.318</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -788,19 +908,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>330.0879999999999</v>
+        <v>155.872</v>
       </c>
       <c r="C10">
-        <v>330.0879999999999</v>
+        <v>155.872</v>
       </c>
       <c r="D10">
-        <v>330.0879999999999</v>
+        <v>155.872</v>
       </c>
       <c r="E10">
-        <v>330.0879999999999</v>
+        <v>155.872</v>
       </c>
       <c r="F10">
-        <v>330.0879999999999</v>
+        <v>155.872</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -823,19 +943,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>363.228</v>
+        <v>177.012</v>
       </c>
       <c r="C11">
-        <v>363.228</v>
+        <v>177.012</v>
       </c>
       <c r="D11">
-        <v>363.228</v>
+        <v>177.012</v>
       </c>
       <c r="E11">
-        <v>363.228</v>
+        <v>177.012</v>
       </c>
       <c r="F11">
-        <v>363.228</v>
+        <v>177.012</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -850,6 +970,1406 @@
         <v>0</v>
       </c>
       <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>176.146</v>
+      </c>
+      <c r="C12">
+        <v>176.146</v>
+      </c>
+      <c r="D12">
+        <v>176.146</v>
+      </c>
+      <c r="E12">
+        <v>176.146</v>
+      </c>
+      <c r="F12">
+        <v>176.146</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>187.91</v>
+      </c>
+      <c r="C13">
+        <v>187.91</v>
+      </c>
+      <c r="D13">
+        <v>187.91</v>
+      </c>
+      <c r="E13">
+        <v>187.91</v>
+      </c>
+      <c r="F13">
+        <v>187.91</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>200.668</v>
+      </c>
+      <c r="C14">
+        <v>200.668</v>
+      </c>
+      <c r="D14">
+        <v>200.668</v>
+      </c>
+      <c r="E14">
+        <v>200.668</v>
+      </c>
+      <c r="F14">
+        <v>200.668</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>139.458</v>
+      </c>
+      <c r="C15">
+        <v>139.458</v>
+      </c>
+      <c r="D15">
+        <v>139.458</v>
+      </c>
+      <c r="E15">
+        <v>139.458</v>
+      </c>
+      <c r="F15">
+        <v>139.458</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>266.292</v>
+      </c>
+      <c r="C16">
+        <v>266.292</v>
+      </c>
+      <c r="D16">
+        <v>266.292</v>
+      </c>
+      <c r="E16">
+        <v>266.292</v>
+      </c>
+      <c r="F16">
+        <v>266.292</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>206.184</v>
+      </c>
+      <c r="C17">
+        <v>206.184</v>
+      </c>
+      <c r="D17">
+        <v>206.184</v>
+      </c>
+      <c r="E17">
+        <v>206.184</v>
+      </c>
+      <c r="F17">
+        <v>206.184</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>249.91</v>
+      </c>
+      <c r="C18">
+        <v>249.91</v>
+      </c>
+      <c r="D18">
+        <v>249.91</v>
+      </c>
+      <c r="E18">
+        <v>249.91</v>
+      </c>
+      <c r="F18">
+        <v>249.91</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>202.63</v>
+      </c>
+      <c r="C19">
+        <v>202.6299999999999</v>
+      </c>
+      <c r="D19">
+        <v>202.63</v>
+      </c>
+      <c r="E19">
+        <v>202.6299999999999</v>
+      </c>
+      <c r="F19">
+        <v>202.6299999999999</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>178.668</v>
+      </c>
+      <c r="C20">
+        <v>178.668</v>
+      </c>
+      <c r="D20">
+        <v>178.668</v>
+      </c>
+      <c r="E20">
+        <v>178.668</v>
+      </c>
+      <c r="F20">
+        <v>178.668</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>222.216</v>
+      </c>
+      <c r="C21">
+        <v>222.216</v>
+      </c>
+      <c r="D21">
+        <v>222.216</v>
+      </c>
+      <c r="E21">
+        <v>222.216</v>
+      </c>
+      <c r="F21">
+        <v>222.216</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>203.356</v>
+      </c>
+      <c r="C22">
+        <v>203.356</v>
+      </c>
+      <c r="D22">
+        <v>203.356</v>
+      </c>
+      <c r="E22">
+        <v>203.356</v>
+      </c>
+      <c r="F22">
+        <v>203.356</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>226.808</v>
+      </c>
+      <c r="C23">
+        <v>226.808</v>
+      </c>
+      <c r="D23">
+        <v>226.808</v>
+      </c>
+      <c r="E23">
+        <v>226.808</v>
+      </c>
+      <c r="F23">
+        <v>226.808</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>182.872</v>
+      </c>
+      <c r="C24">
+        <v>182.872</v>
+      </c>
+      <c r="D24">
+        <v>182.872</v>
+      </c>
+      <c r="E24">
+        <v>182.872</v>
+      </c>
+      <c r="F24">
+        <v>182.872</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>175.012</v>
+      </c>
+      <c r="C25">
+        <v>175.012</v>
+      </c>
+      <c r="D25">
+        <v>175.012</v>
+      </c>
+      <c r="E25">
+        <v>175.012</v>
+      </c>
+      <c r="F25">
+        <v>175.012</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>213.1200000000001</v>
+      </c>
+      <c r="C26">
+        <v>213.12</v>
+      </c>
+      <c r="D26">
+        <v>213.12</v>
+      </c>
+      <c r="E26">
+        <v>213.12</v>
+      </c>
+      <c r="F26">
+        <v>213.12</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>178.146</v>
+      </c>
+      <c r="C27">
+        <v>178.146</v>
+      </c>
+      <c r="D27">
+        <v>178.146</v>
+      </c>
+      <c r="E27">
+        <v>178.146</v>
+      </c>
+      <c r="F27">
+        <v>178.146</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>168.114</v>
+      </c>
+      <c r="C28">
+        <v>168.114</v>
+      </c>
+      <c r="D28">
+        <v>168.114</v>
+      </c>
+      <c r="E28">
+        <v>168.114</v>
+      </c>
+      <c r="F28">
+        <v>168.114</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>190.012</v>
+      </c>
+      <c r="C29">
+        <v>190.012</v>
+      </c>
+      <c r="D29">
+        <v>190.012</v>
+      </c>
+      <c r="E29">
+        <v>190.012</v>
+      </c>
+      <c r="F29">
+        <v>190.012</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>206.324</v>
+      </c>
+      <c r="C30">
+        <v>206.324</v>
+      </c>
+      <c r="D30">
+        <v>206.324</v>
+      </c>
+      <c r="E30">
+        <v>206.324</v>
+      </c>
+      <c r="F30">
+        <v>206.324</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>167.426</v>
+      </c>
+      <c r="C31">
+        <v>167.426</v>
+      </c>
+      <c r="D31">
+        <v>167.426</v>
+      </c>
+      <c r="E31">
+        <v>167.426</v>
+      </c>
+      <c r="F31">
+        <v>167.426</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>229.012</v>
+      </c>
+      <c r="C32">
+        <v>229.012</v>
+      </c>
+      <c r="D32">
+        <v>229.012</v>
+      </c>
+      <c r="E32">
+        <v>229.012</v>
+      </c>
+      <c r="F32">
+        <v>229.012</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>177.012</v>
+      </c>
+      <c r="C33">
+        <v>177.012</v>
+      </c>
+      <c r="D33">
+        <v>177.012</v>
+      </c>
+      <c r="E33">
+        <v>177.012</v>
+      </c>
+      <c r="F33">
+        <v>177.012</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>243.77</v>
+      </c>
+      <c r="C34">
+        <v>243.77</v>
+      </c>
+      <c r="D34">
+        <v>243.77</v>
+      </c>
+      <c r="E34">
+        <v>243.77</v>
+      </c>
+      <c r="F34">
+        <v>243.77</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>186.942</v>
+      </c>
+      <c r="C35">
+        <v>186.942</v>
+      </c>
+      <c r="D35">
+        <v>186.942</v>
+      </c>
+      <c r="E35">
+        <v>186.942</v>
+      </c>
+      <c r="F35">
+        <v>186.942</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>175.356</v>
+      </c>
+      <c r="C36">
+        <v>175.356</v>
+      </c>
+      <c r="D36">
+        <v>175.356</v>
+      </c>
+      <c r="E36">
+        <v>175.356</v>
+      </c>
+      <c r="F36">
+        <v>175.356</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>284.91</v>
+      </c>
+      <c r="C37">
+        <v>284.91</v>
+      </c>
+      <c r="D37">
+        <v>284.91</v>
+      </c>
+      <c r="E37">
+        <v>284.91</v>
+      </c>
+      <c r="F37">
+        <v>284.91</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>173.872</v>
+      </c>
+      <c r="C38">
+        <v>173.872</v>
+      </c>
+      <c r="D38">
+        <v>173.872</v>
+      </c>
+      <c r="E38">
+        <v>173.872</v>
+      </c>
+      <c r="F38">
+        <v>173.872</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>163.738</v>
+      </c>
+      <c r="C39">
+        <v>163.738</v>
+      </c>
+      <c r="D39">
+        <v>163.738</v>
+      </c>
+      <c r="E39">
+        <v>163.738</v>
+      </c>
+      <c r="F39">
+        <v>163.738</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>220.566</v>
+      </c>
+      <c r="C40">
+        <v>220.566</v>
+      </c>
+      <c r="D40">
+        <v>220.566</v>
+      </c>
+      <c r="E40">
+        <v>220.566</v>
+      </c>
+      <c r="F40">
+        <v>220.566</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>244.496</v>
+      </c>
+      <c r="C41">
+        <v>244.496</v>
+      </c>
+      <c r="D41">
+        <v>244.496</v>
+      </c>
+      <c r="E41">
+        <v>244.496</v>
+      </c>
+      <c r="F41">
+        <v>244.496</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>233.98</v>
+      </c>
+      <c r="C42">
+        <v>233.98</v>
+      </c>
+      <c r="D42">
+        <v>233.98</v>
+      </c>
+      <c r="E42">
+        <v>233.98</v>
+      </c>
+      <c r="F42">
+        <v>233.98</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>216.84</v>
+      </c>
+      <c r="C43">
+        <v>216.84</v>
+      </c>
+      <c r="D43">
+        <v>216.84</v>
+      </c>
+      <c r="E43">
+        <v>216.84</v>
+      </c>
+      <c r="F43">
+        <v>216.84</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>229.496</v>
+      </c>
+      <c r="C44">
+        <v>229.496</v>
+      </c>
+      <c r="D44">
+        <v>229.496</v>
+      </c>
+      <c r="E44">
+        <v>229.496</v>
+      </c>
+      <c r="F44">
+        <v>229.496</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>188.528</v>
+      </c>
+      <c r="C45">
+        <v>188.528</v>
+      </c>
+      <c r="D45">
+        <v>188.528</v>
+      </c>
+      <c r="E45">
+        <v>188.528</v>
+      </c>
+      <c r="F45">
+        <v>188.528</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>217.98</v>
+      </c>
+      <c r="C46">
+        <v>217.98</v>
+      </c>
+      <c r="D46">
+        <v>217.98</v>
+      </c>
+      <c r="E46">
+        <v>217.98</v>
+      </c>
+      <c r="F46">
+        <v>217.98</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>223.356</v>
+      </c>
+      <c r="C47">
+        <v>223.356</v>
+      </c>
+      <c r="D47">
+        <v>223.356</v>
+      </c>
+      <c r="E47">
+        <v>223.356</v>
+      </c>
+      <c r="F47">
+        <v>223.356</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>204.426</v>
+      </c>
+      <c r="C48">
+        <v>204.426</v>
+      </c>
+      <c r="D48">
+        <v>204.426</v>
+      </c>
+      <c r="E48">
+        <v>204.426</v>
+      </c>
+      <c r="F48">
+        <v>204.426</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>267.3240000000001</v>
+      </c>
+      <c r="C49">
+        <v>267.324</v>
+      </c>
+      <c r="D49">
+        <v>267.324</v>
+      </c>
+      <c r="E49">
+        <v>267.324</v>
+      </c>
+      <c r="F49">
+        <v>267.324</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>283.534</v>
+      </c>
+      <c r="C50">
+        <v>283.534</v>
+      </c>
+      <c r="D50">
+        <v>283.534</v>
+      </c>
+      <c r="E50">
+        <v>283.534</v>
+      </c>
+      <c r="F50">
+        <v>283.534</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>188.012</v>
+      </c>
+      <c r="C51">
+        <v>188.012</v>
+      </c>
+      <c r="D51">
+        <v>188.012</v>
+      </c>
+      <c r="E51">
+        <v>188.012</v>
+      </c>
+      <c r="F51">
+        <v>188.012</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -860,7 +2380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,31 +2423,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2344</v>
+        <v>1917</v>
       </c>
       <c r="D2">
-        <v>0.002771381172351539</v>
+        <v>0.002102562109939754</v>
       </c>
       <c r="E2">
-        <v>1.15260472195223</v>
+        <v>0.8265597719000652</v>
       </c>
       <c r="F2">
-        <v>2344</v>
+        <v>1917</v>
       </c>
       <c r="G2">
-        <v>0.08276100619696081</v>
+        <v>0.06540792318992317</v>
       </c>
       <c r="H2">
-        <v>0.6638064605649561</v>
+        <v>0.533836156479083</v>
       </c>
       <c r="I2">
-        <v>0.09792085108347237</v>
+        <v>0.03102332656271756</v>
       </c>
       <c r="J2">
-        <v>0.1986604953417554</v>
+        <v>0.1024226921144873</v>
       </c>
       <c r="K2">
-        <v>0.02698635892011225</v>
+        <v>0.02289911720436066</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -936,31 +2456,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1622</v>
+        <v>906</v>
       </c>
       <c r="D3">
-        <v>0.08472272241488099</v>
+        <v>0.03476156573742628</v>
       </c>
       <c r="E3">
-        <v>0.9920867490582168</v>
+        <v>0.4304519189754501</v>
       </c>
       <c r="F3">
-        <v>1622</v>
+        <v>906</v>
       </c>
       <c r="G3">
-        <v>0.05452327476814389</v>
+        <v>0.03058386396151036</v>
       </c>
       <c r="H3">
-        <v>0.5224068800453097</v>
+        <v>0.2864220405463129</v>
       </c>
       <c r="I3">
-        <v>0.1321067102253437</v>
+        <v>0.0122291399165988</v>
       </c>
       <c r="J3">
-        <v>0.210371445864439</v>
+        <v>0.05834550783038139</v>
       </c>
       <c r="K3">
-        <v>0.01797350856941193</v>
+        <v>0.0105978415813297</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -969,31 +2489,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3582</v>
+        <v>994</v>
       </c>
       <c r="D4">
-        <v>0.08514723123516887</v>
+        <v>0.0363062066026032</v>
       </c>
       <c r="E4">
-        <v>1.738025176920928</v>
+        <v>0.4797765309922397</v>
       </c>
       <c r="F4">
-        <v>3582</v>
+        <v>994</v>
       </c>
       <c r="G4">
-        <v>0.1167084270855412</v>
+        <v>0.03373064310289919</v>
       </c>
       <c r="H4">
-        <v>1.01536724541802</v>
+        <v>0.3163056807825342</v>
       </c>
       <c r="I4">
-        <v>0.1303519253851846</v>
+        <v>0.01328695775009692</v>
       </c>
       <c r="J4">
-        <v>0.3179578987183049</v>
+        <v>0.06885457935277373</v>
       </c>
       <c r="K4">
-        <v>0.03911923698615283</v>
+        <v>0.01175700721796602</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1002,43 +2522,43 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2344</v>
+        <v>1917</v>
       </c>
       <c r="D5">
-        <v>0.003700950648635626</v>
+        <v>0.002904409309849143</v>
       </c>
       <c r="E5">
-        <v>1.11316008400172</v>
+        <v>0.8011775210034102</v>
       </c>
       <c r="F5">
-        <v>2344</v>
+        <v>1917</v>
       </c>
       <c r="G5">
-        <v>0.07882161461748183</v>
+        <v>0.06269409763626754</v>
       </c>
       <c r="H5">
-        <v>0.6398038157494739</v>
+        <v>0.5142549067968503</v>
       </c>
       <c r="I5">
-        <v>0.09775040694512427</v>
+        <v>0.03284437872935086</v>
       </c>
       <c r="J5">
-        <v>0.1915737704839557</v>
+        <v>0.1004058457911015</v>
       </c>
       <c r="K5">
-        <v>0.02618960768450052</v>
+        <v>0.02247195970267057</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E6">
-        <v>20.57161672017537</v>
+        <v>5.612176403752528</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1049,31 +2569,31 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2410</v>
+        <v>1449</v>
       </c>
       <c r="D7">
-        <v>0.002404563594609499</v>
+        <v>0.001526363892480731</v>
       </c>
       <c r="E7">
-        <v>1.062342143035494</v>
+        <v>0.614279919071123</v>
       </c>
       <c r="F7">
-        <v>2410</v>
+        <v>1449</v>
       </c>
       <c r="G7">
-        <v>0.07916462374851108</v>
+        <v>0.04794396937359124</v>
       </c>
       <c r="H7">
-        <v>0.6169348772382364</v>
+        <v>0.390021838247776</v>
       </c>
       <c r="I7">
-        <v>0.08485108776949346</v>
+        <v>0.0266693189041689</v>
       </c>
       <c r="J7">
-        <v>0.1740668084239587</v>
+        <v>0.08054563286714256</v>
       </c>
       <c r="K7">
-        <v>0.0264873142587021</v>
+        <v>0.01694328302983195</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1082,31 +2602,31 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2143</v>
+        <v>487</v>
       </c>
       <c r="D8">
-        <v>0.09951492422260344</v>
+        <v>0.02090513508301228</v>
       </c>
       <c r="E8">
-        <v>1.167127348016948</v>
+        <v>0.2877145080128685</v>
       </c>
       <c r="F8">
-        <v>2143</v>
+        <v>487</v>
       </c>
       <c r="G8">
-        <v>0.07007564872037619</v>
+        <v>0.01684814528562129</v>
       </c>
       <c r="H8">
-        <v>0.6672653052955866</v>
+        <v>0.1596764099085703</v>
       </c>
       <c r="I8">
-        <v>0.1231699176132679</v>
+        <v>0.007905121194198728</v>
       </c>
       <c r="J8">
-        <v>0.2120221275836229</v>
+        <v>0.07985469372943044</v>
       </c>
       <c r="K8">
-        <v>0.02337066072504967</v>
+        <v>0.005817611119709909</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1115,31 +2635,31 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3671</v>
+        <v>694</v>
       </c>
       <c r="D9">
-        <v>0.1345391294453293</v>
+        <v>0.0261283916188404</v>
       </c>
       <c r="E9">
-        <v>1.853761216043495</v>
+        <v>0.3497403590008616</v>
       </c>
       <c r="F9">
-        <v>3671</v>
+        <v>694</v>
       </c>
       <c r="G9">
-        <v>0.1237138751894236</v>
+        <v>0.02372124162502587</v>
       </c>
       <c r="H9">
-        <v>1.114811588660814</v>
+        <v>0.2219080183422193</v>
       </c>
       <c r="I9">
-        <v>0.1287816883996129</v>
+        <v>0.01025042240507901</v>
       </c>
       <c r="J9">
-        <v>0.3215948415454477</v>
+        <v>0.06057272385805845</v>
       </c>
       <c r="K9">
-        <v>0.04114812810439616</v>
+        <v>0.008155173272825778</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1148,43 +2668,43 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>2410</v>
+        <v>1449</v>
       </c>
       <c r="D10">
-        <v>0.003545692074112594</v>
+        <v>0.002301383181475103</v>
       </c>
       <c r="E10">
-        <v>1.048558126902208</v>
+        <v>0.6184929859591648</v>
       </c>
       <c r="F10">
-        <v>2410</v>
+        <v>1449</v>
       </c>
       <c r="G10">
-        <v>0.07728457299526781</v>
+        <v>0.04781044367700815</v>
       </c>
       <c r="H10">
-        <v>0.6088228627340868</v>
+        <v>0.3909378739772364</v>
       </c>
       <c r="I10">
-        <v>0.08803122933022678</v>
+        <v>0.03069139725994319</v>
       </c>
       <c r="J10">
-        <v>0.1697771270992234</v>
+        <v>0.08014542935416102</v>
       </c>
       <c r="K10">
-        <v>0.02610156161244959</v>
+        <v>0.01688162016216666</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E11">
-        <v>19.58714693365619</v>
+        <v>6.81584363093134</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1195,31 +2715,31 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2382</v>
+        <v>1694</v>
       </c>
       <c r="D12">
-        <v>0.002490895451046526</v>
+        <v>0.00181361346039921</v>
       </c>
       <c r="E12">
-        <v>1.079252691008151</v>
+        <v>0.7355453369673342</v>
       </c>
       <c r="F12">
-        <v>2382</v>
+        <v>1694</v>
       </c>
       <c r="G12">
-        <v>0.07821545435581356</v>
+        <v>0.0582066933857277</v>
       </c>
       <c r="H12">
-        <v>0.6140262763947248</v>
+        <v>0.4746905161300674</v>
       </c>
       <c r="I12">
-        <v>0.08533949393313378</v>
+        <v>0.0247215882409364</v>
       </c>
       <c r="J12">
-        <v>0.1964635231997818</v>
+        <v>0.09394796844571829</v>
       </c>
       <c r="K12">
-        <v>0.02633760159369558</v>
+        <v>0.02050884405616671</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1228,31 +2748,31 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>953</v>
+        <v>752</v>
       </c>
       <c r="D13">
-        <v>0.0736186234280467</v>
+        <v>0.02000696700997651</v>
       </c>
       <c r="E13">
-        <v>0.7460592099232599</v>
+        <v>0.3473327999236062</v>
       </c>
       <c r="F13">
-        <v>953</v>
+        <v>752</v>
       </c>
       <c r="G13">
-        <v>0.03533468302339315</v>
+        <v>0.02461857232265174</v>
       </c>
       <c r="H13">
-        <v>0.3448081847745925</v>
+        <v>0.2244635737733915</v>
       </c>
       <c r="I13">
-        <v>0.1174728615442291</v>
+        <v>0.006357249338179827</v>
       </c>
       <c r="J13">
-        <v>0.203072453616187</v>
+        <v>0.05621691816486418</v>
       </c>
       <c r="K13">
-        <v>0.01119994756300002</v>
+        <v>0.008802810334600508</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1261,31 +2781,31 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2743</v>
+        <v>5652</v>
       </c>
       <c r="D14">
-        <v>0.06475480110384524</v>
+        <v>0.03388309117872268</v>
       </c>
       <c r="E14">
-        <v>1.393069355981424</v>
+        <v>2.382574080955237</v>
       </c>
       <c r="F14">
-        <v>2743</v>
+        <v>5652</v>
       </c>
       <c r="G14">
-        <v>0.09367325319908559</v>
+        <v>0.1860685521969572</v>
       </c>
       <c r="H14">
-        <v>0.7897992151556537</v>
+        <v>1.556833241251297</v>
       </c>
       <c r="I14">
-        <v>0.1146066606743261</v>
+        <v>0.01790512853767723</v>
       </c>
       <c r="J14">
-        <v>0.2679888658458367</v>
+        <v>0.3519143810262904</v>
       </c>
       <c r="K14">
-        <v>0.03151711262762547</v>
+        <v>0.06658527895342559</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1294,43 +2814,43 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>2382</v>
+        <v>1694</v>
       </c>
       <c r="D15">
-        <v>0.00370490166824311</v>
+        <v>0.002594246994704008</v>
       </c>
       <c r="E15">
-        <v>1.092534719035029</v>
+        <v>0.7113453439669684</v>
       </c>
       <c r="F15">
-        <v>2382</v>
+        <v>1694</v>
       </c>
       <c r="G15">
-        <v>0.07927084644325078</v>
+        <v>0.05611890566069633</v>
       </c>
       <c r="H15">
-        <v>0.6131959274644032</v>
+        <v>0.4577222921652719</v>
       </c>
       <c r="I15">
-        <v>0.09315922157838941</v>
+        <v>0.02660253399517387</v>
       </c>
       <c r="J15">
-        <v>0.1977270065108314</v>
+        <v>0.08960875519551337</v>
       </c>
       <c r="K15">
-        <v>0.02688876248430461</v>
+        <v>0.02013033092953265</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C16">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E16">
-        <v>20.92840052454267</v>
+        <v>6.372788973036222</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1341,31 +2861,31 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>2239</v>
+        <v>1799</v>
       </c>
       <c r="D17">
-        <v>0.00240669900085777</v>
+        <v>0.001813985523767769</v>
       </c>
       <c r="E17">
-        <v>1.063485822058283</v>
+        <v>0.7489015159662813</v>
       </c>
       <c r="F17">
-        <v>2239</v>
+        <v>1799</v>
       </c>
       <c r="G17">
-        <v>0.07666876749135554</v>
+        <v>0.05961185705382377</v>
       </c>
       <c r="H17">
-        <v>0.5855731863994151</v>
+        <v>0.4814676397945732</v>
       </c>
       <c r="I17">
-        <v>0.09365746180992573</v>
+        <v>0.02779819257557392</v>
       </c>
       <c r="J17">
-        <v>0.2042625588364899</v>
+        <v>0.09356654423754662</v>
       </c>
       <c r="K17">
-        <v>0.02565047575626522</v>
+        <v>0.02130108943674713</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1374,31 +2894,31 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="D18">
-        <v>0.07739888282958418</v>
+        <v>0.02976466459222138</v>
       </c>
       <c r="E18">
-        <v>0.5913278259104118</v>
+        <v>0.3550784239778295</v>
       </c>
       <c r="F18">
-        <v>628</v>
+        <v>681</v>
       </c>
       <c r="G18">
-        <v>0.02169508382212371</v>
+        <v>0.02452076633926481</v>
       </c>
       <c r="H18">
-        <v>0.2516510928981006</v>
+        <v>0.2344955238513649</v>
       </c>
       <c r="I18">
-        <v>0.1242083585821092</v>
+        <v>0.009478449239395559</v>
       </c>
       <c r="J18">
-        <v>0.1651681915391237</v>
+        <v>0.05196985660586506</v>
       </c>
       <c r="K18">
-        <v>0.007133208913728595</v>
+        <v>0.008388556423597038</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1407,31 +2927,31 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>2190</v>
+        <v>2310</v>
       </c>
       <c r="D19">
-        <v>0.06322475161869079</v>
+        <v>0.04632746952120215</v>
       </c>
       <c r="E19">
-        <v>1.207839405047707</v>
+        <v>1.057244275929406</v>
       </c>
       <c r="F19">
-        <v>2190</v>
+        <v>2310</v>
       </c>
       <c r="G19">
-        <v>0.07433440501336008</v>
+        <v>0.07734679232817143</v>
       </c>
       <c r="H19">
-        <v>0.636744697461836</v>
+        <v>0.6848596850177273</v>
       </c>
       <c r="I19">
-        <v>0.1377002502558753</v>
+        <v>0.01851060055196285</v>
       </c>
       <c r="J19">
-        <v>0.259365142439492</v>
+        <v>0.163677703239955</v>
       </c>
       <c r="K19">
-        <v>0.02483360201586038</v>
+        <v>0.02755944617092609</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1440,43 +2960,43 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>2239</v>
+        <v>1799</v>
       </c>
       <c r="D20">
-        <v>0.003557429881766438</v>
+        <v>0.002828162512741983</v>
       </c>
       <c r="E20">
-        <v>1.075064433040097</v>
+        <v>0.7602866399101913</v>
       </c>
       <c r="F20">
-        <v>2239</v>
+        <v>1799</v>
       </c>
       <c r="G20">
-        <v>0.07613926625344902</v>
+        <v>0.05982010019943118</v>
       </c>
       <c r="H20">
-        <v>0.5906708911061287</v>
+        <v>0.4861186833586544</v>
       </c>
       <c r="I20">
-        <v>0.1044534649699926</v>
+        <v>0.03085656161420047</v>
       </c>
       <c r="J20">
-        <v>0.2007492039119825</v>
+        <v>0.09642046899534762</v>
       </c>
       <c r="K20">
-        <v>0.02565561234951019</v>
+        <v>0.02132231125142425</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E21">
-        <v>22.33299056219403</v>
+        <v>6.070973166730255</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1487,31 +3007,31 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>2373</v>
+        <v>2054</v>
       </c>
       <c r="D22">
-        <v>0.002414671937003732</v>
+        <v>0.002150450134649873</v>
       </c>
       <c r="E22">
-        <v>1.062148296041414</v>
+        <v>0.8587048309855163</v>
       </c>
       <c r="F22">
-        <v>2373</v>
+        <v>2054</v>
       </c>
       <c r="G22">
-        <v>0.07801701710559428</v>
+        <v>0.06834105809684843</v>
       </c>
       <c r="H22">
-        <v>0.6026336665963754</v>
+        <v>0.554682779009454</v>
       </c>
       <c r="I22">
-        <v>0.09553531534038484</v>
+        <v>0.02981985721271485</v>
       </c>
       <c r="J22">
-        <v>0.1813396094366908</v>
+        <v>0.1069993971614167</v>
       </c>
       <c r="K22">
-        <v>0.02593903138767928</v>
+        <v>0.02391604671720415</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1520,31 +3040,31 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1113</v>
+        <v>1450</v>
       </c>
       <c r="D23">
-        <v>0.08045637293253094</v>
+        <v>0.04041790880728513</v>
       </c>
       <c r="E23">
-        <v>0.8206903210375458</v>
+        <v>0.6678657300071791</v>
       </c>
       <c r="F23">
-        <v>1113</v>
+        <v>1450</v>
       </c>
       <c r="G23">
-        <v>0.03698119753971696</v>
+        <v>0.04859502904582769</v>
       </c>
       <c r="H23">
-        <v>0.3821459641912952</v>
+        <v>0.4457057002000511</v>
       </c>
       <c r="I23">
-        <v>0.1662923840340227</v>
+        <v>0.01682112645357847</v>
       </c>
       <c r="J23">
-        <v>0.1862279869383201</v>
+        <v>0.08694074698723853</v>
       </c>
       <c r="K23">
-        <v>0.01212492538616061</v>
+        <v>0.01701174699701369</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1553,31 +3073,31 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>1116</v>
+        <v>4217</v>
       </c>
       <c r="D24">
-        <v>0.08371373219415545</v>
+        <v>0.04836535383947194</v>
       </c>
       <c r="E24">
-        <v>0.9215555790578946</v>
+        <v>1.9373245179886</v>
       </c>
       <c r="F24">
-        <v>1116</v>
+        <v>4217</v>
       </c>
       <c r="G24">
-        <v>0.03972760261967778</v>
+        <v>0.149476476595737</v>
       </c>
       <c r="H24">
-        <v>0.3900621633511037</v>
+        <v>1.219377297558822</v>
       </c>
       <c r="I24">
-        <v>0.1931599967647344</v>
+        <v>0.02370204718317837</v>
       </c>
       <c r="J24">
-        <v>0.2478904124582186</v>
+        <v>0.3326288053067401</v>
       </c>
       <c r="K24">
-        <v>0.01271008024923503</v>
+        <v>0.05067593802232295</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1586,43 +3106,43 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>2373</v>
+        <v>2054</v>
       </c>
       <c r="D25">
-        <v>0.003621128154918551</v>
+        <v>0.003352791303768754</v>
       </c>
       <c r="E25">
-        <v>1.06962340301834</v>
+        <v>0.8676229360280558</v>
       </c>
       <c r="F25">
-        <v>2373</v>
+        <v>2054</v>
       </c>
       <c r="G25">
-        <v>0.07776591856963933</v>
+        <v>0.06859309691935778</v>
       </c>
       <c r="H25">
-        <v>0.6036209509475157</v>
+        <v>0.5599252048414201</v>
       </c>
       <c r="I25">
-        <v>0.1026430062483996</v>
+        <v>0.03281143272761256</v>
       </c>
       <c r="J25">
-        <v>0.1803084460552782</v>
+        <v>0.1073882055934519</v>
       </c>
       <c r="K25">
-        <v>0.02680732705630362</v>
+        <v>0.02417634276207536</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C26">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E26">
-        <v>21.22002164460719</v>
+        <v>6.002129394211806</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1633,31 +3153,31 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2021</v>
+        <v>2062</v>
       </c>
       <c r="D27">
-        <v>0.002159411902539432</v>
+        <v>0.002214626758359373</v>
       </c>
       <c r="E27">
-        <v>0.9157786580035463</v>
+        <v>0.8683648420264944</v>
       </c>
       <c r="F27">
-        <v>2021</v>
+        <v>2062</v>
       </c>
       <c r="G27">
-        <v>0.06669387000147253</v>
+        <v>0.06941674021072686</v>
       </c>
       <c r="H27">
-        <v>0.5186826286371797</v>
+        <v>0.5617530768504366</v>
       </c>
       <c r="I27">
-        <v>0.07871932978741825</v>
+        <v>0.02991570706944913</v>
       </c>
       <c r="J27">
-        <v>0.1618753335205838</v>
+        <v>0.1069043894531205</v>
       </c>
       <c r="K27">
-        <v>0.02211622253526002</v>
+        <v>0.02421383175533265</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1666,31 +3186,31 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>789</v>
+        <v>1225</v>
       </c>
       <c r="D28">
-        <v>0.06327904225327075</v>
+        <v>0.04389574751257896</v>
       </c>
       <c r="E28">
-        <v>0.6006002549547702</v>
+        <v>0.5809193729655817</v>
       </c>
       <c r="F28">
-        <v>789</v>
+        <v>1225</v>
       </c>
       <c r="G28">
-        <v>0.02665553812403232</v>
+        <v>0.04178106423933059</v>
       </c>
       <c r="H28">
-        <v>0.2799732461571693</v>
+        <v>0.3901214492507279</v>
       </c>
       <c r="I28">
-        <v>0.1120014449115843</v>
+        <v>0.01749979553278536</v>
       </c>
       <c r="J28">
-        <v>0.1470261336071417</v>
+        <v>0.07301069551613182</v>
       </c>
       <c r="K28">
-        <v>0.00868024374358356</v>
+        <v>0.01408609712962061</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1699,31 +3219,31 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>2156</v>
+        <v>5023</v>
       </c>
       <c r="D29">
-        <v>0.06738987367134541</v>
+        <v>0.05552861408796161</v>
       </c>
       <c r="E29">
-        <v>1.135025138966739</v>
+        <v>2.187747857999057</v>
       </c>
       <c r="F29">
-        <v>2156</v>
+        <v>5023</v>
       </c>
       <c r="G29">
-        <v>0.07071399630513042</v>
+        <v>0.1678686464438215</v>
       </c>
       <c r="H29">
-        <v>0.6331543429987505</v>
+        <v>1.436796113150194</v>
       </c>
       <c r="I29">
-        <v>0.1094021782046184</v>
+        <v>0.02712437452282757</v>
       </c>
       <c r="J29">
-        <v>0.2271726357284933</v>
+        <v>0.3130696200532839</v>
       </c>
       <c r="K29">
-        <v>0.02370610414072871</v>
+        <v>0.05923279200214893</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1732,43 +3252,43 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>2021</v>
+        <v>2062</v>
       </c>
       <c r="D30">
-        <v>0.00328507786616683</v>
+        <v>0.00344537990167737</v>
       </c>
       <c r="E30">
-        <v>0.9285635200794786</v>
+        <v>0.8661962359910831</v>
       </c>
       <c r="F30">
-        <v>2021</v>
+        <v>2062</v>
       </c>
       <c r="G30">
-        <v>0.06663091748487204</v>
+        <v>0.06871575675904751</v>
       </c>
       <c r="H30">
-        <v>0.5276395344408229</v>
+        <v>0.5613386174663901</v>
       </c>
       <c r="I30">
-        <v>0.08545827958732843</v>
+        <v>0.03176004718989134</v>
       </c>
       <c r="J30">
-        <v>0.1593284785049036</v>
+        <v>0.1058478998020291</v>
       </c>
       <c r="K30">
-        <v>0.0223642885684967</v>
+        <v>0.02401774493046105</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E31">
-        <v>20.95188198820688</v>
+        <v>6.037897662143223</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1779,31 +3299,31 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>2281</v>
+        <v>2005</v>
       </c>
       <c r="D32">
-        <v>0.00239196652546525</v>
+        <v>0.002073190873488784</v>
       </c>
       <c r="E32">
-        <v>1.022676949040033</v>
+        <v>0.8463227250613272</v>
       </c>
       <c r="F32">
-        <v>2281</v>
+        <v>2005</v>
       </c>
       <c r="G32">
-        <v>0.0759123433381319</v>
+        <v>0.06643042585346848</v>
       </c>
       <c r="H32">
-        <v>0.5856169952312484</v>
+        <v>0.5404848811449483</v>
       </c>
       <c r="I32">
-        <v>0.07845542626455426</v>
+        <v>0.03453513456042856</v>
       </c>
       <c r="J32">
-        <v>0.1794710091780871</v>
+        <v>0.1087917832192034</v>
       </c>
       <c r="K32">
-        <v>0.02563555585220456</v>
+        <v>0.0233918622834608</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1812,31 +3332,31 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>1274</v>
+        <v>1457</v>
       </c>
       <c r="D33">
-        <v>0.08904446370434016</v>
+        <v>0.04713380162138492</v>
       </c>
       <c r="E33">
-        <v>0.8615364169236273</v>
+        <v>0.7067018339876086</v>
       </c>
       <c r="F33">
-        <v>1274</v>
+        <v>1457</v>
       </c>
       <c r="G33">
-        <v>0.0458728939993307</v>
+        <v>0.0491874961880967</v>
       </c>
       <c r="H33">
-        <v>0.4540991658577695</v>
+        <v>0.4484608586644754</v>
       </c>
       <c r="I33">
-        <v>0.111170275718905</v>
+        <v>0.02057882770895958</v>
       </c>
       <c r="J33">
-        <v>0.1891472855350003</v>
+        <v>0.1197077219840139</v>
       </c>
       <c r="K33">
-        <v>0.01511954027228057</v>
+        <v>0.01671764382626861</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1845,31 +3365,31 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2533</v>
+        <v>3864</v>
       </c>
       <c r="D34">
-        <v>0.09447402134537697</v>
+        <v>0.05245801678393036</v>
       </c>
       <c r="E34">
-        <v>1.440295177977532</v>
+        <v>1.694931534002535</v>
       </c>
       <c r="F34">
-        <v>2533</v>
+        <v>3864</v>
       </c>
       <c r="G34">
-        <v>0.0940505713224411</v>
+        <v>0.1299914601258934</v>
       </c>
       <c r="H34">
-        <v>0.8272056360729039</v>
+        <v>1.107569486252032</v>
       </c>
       <c r="I34">
-        <v>0.1285624688025564</v>
+        <v>0.0245335977524519</v>
       </c>
       <c r="J34">
-        <v>0.2629934401484206</v>
+        <v>0.2454936535796151</v>
       </c>
       <c r="K34">
-        <v>0.03171545267105103</v>
+        <v>0.0462931195506826</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1878,43 +3398,43 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>2281</v>
+        <v>2005</v>
       </c>
       <c r="D35">
-        <v>0.003548285807482898</v>
+        <v>0.00304583040997386</v>
       </c>
       <c r="E35">
-        <v>1.040984181920066</v>
+        <v>0.8362661170540377</v>
       </c>
       <c r="F35">
-        <v>2281</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>0.07646512519568205</v>
+        <v>0.06606994627509266</v>
       </c>
       <c r="H35">
-        <v>0.5961272609420121</v>
+        <v>0.5302597031695768</v>
       </c>
       <c r="I35">
-        <v>0.08526553015690297</v>
+        <v>0.03672532818745822</v>
       </c>
       <c r="J35">
-        <v>0.1800000180955976</v>
+        <v>0.1074856597697362</v>
       </c>
       <c r="K35">
-        <v>0.02561209734994918</v>
+        <v>0.02340982016175985</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E36">
-        <v>21.93146697420161</v>
+        <v>6.376802537008189</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1925,31 +3445,31 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>2170</v>
+        <v>2078</v>
       </c>
       <c r="D37">
-        <v>0.00226597290020436</v>
+        <v>0.002124181250110269</v>
       </c>
       <c r="E37">
-        <v>1.004028954077512</v>
+        <v>0.8620834309840575</v>
       </c>
       <c r="F37">
-        <v>2170</v>
+        <v>2078</v>
       </c>
       <c r="G37">
-        <v>0.07338436134159565</v>
+        <v>0.06853205012157559</v>
       </c>
       <c r="H37">
-        <v>0.5733883030479774</v>
+        <v>0.5518651410238817</v>
       </c>
       <c r="I37">
-        <v>0.08831578772515059</v>
+        <v>0.03202381520532072</v>
       </c>
       <c r="J37">
-        <v>0.1697217784821987</v>
+        <v>0.1101675340905786</v>
       </c>
       <c r="K37">
-        <v>0.02456645970232785</v>
+        <v>0.02432545309420675</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1958,31 +3478,31 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>666</v>
+        <v>1252</v>
       </c>
       <c r="D38">
-        <v>0.05693198274821043</v>
+        <v>0.04175425425637513</v>
       </c>
       <c r="E38">
-        <v>0.6077756130835041</v>
+        <v>0.6242328829830512</v>
       </c>
       <c r="F38">
-        <v>666</v>
+        <v>1252</v>
       </c>
       <c r="G38">
-        <v>0.02320648077875376</v>
+        <v>0.04222914483398199</v>
       </c>
       <c r="H38">
-        <v>0.2471083375858143</v>
+        <v>0.3881771161686629</v>
       </c>
       <c r="I38">
-        <v>0.1211136500351131</v>
+        <v>0.01528985775075853</v>
       </c>
       <c r="J38">
-        <v>0.1856714447494596</v>
+        <v>0.1187490164302289</v>
       </c>
       <c r="K38">
-        <v>0.007606804021634161</v>
+        <v>0.01460731634870172</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1991,31 +3511,31 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>3530</v>
+        <v>4454</v>
       </c>
       <c r="D39">
-        <v>0.0626747322967276</v>
+        <v>0.06004331167787313</v>
       </c>
       <c r="E39">
-        <v>1.766327545046806</v>
+        <v>2.023048010072671</v>
       </c>
       <c r="F39">
-        <v>3530</v>
+        <v>4454</v>
       </c>
       <c r="G39">
-        <v>0.1207133480347693</v>
+        <v>0.1548090997384861</v>
       </c>
       <c r="H39">
-        <v>1.024568425607868</v>
+        <v>1.302417263155803</v>
       </c>
       <c r="I39">
-        <v>0.1260988778667524</v>
+        <v>0.02931164554320276</v>
       </c>
       <c r="J39">
-        <v>0.3323586439946666</v>
+        <v>0.3128013929817826</v>
       </c>
       <c r="K39">
-        <v>0.04069238156080246</v>
+        <v>0.05504539771936834</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2024,43 +3544,43 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>2170</v>
+        <v>2078</v>
       </c>
       <c r="D40">
-        <v>0.003446443239226937</v>
+        <v>0.00318845035508275</v>
       </c>
       <c r="E40">
-        <v>1.028746807947755</v>
+        <v>0.8653548919828609</v>
       </c>
       <c r="F40">
-        <v>2170</v>
+        <v>2078</v>
       </c>
       <c r="G40">
-        <v>0.07425821933429688</v>
+        <v>0.0689347927691415</v>
       </c>
       <c r="H40">
-        <v>0.5858594473684207</v>
+        <v>0.5520852886838838</v>
       </c>
       <c r="I40">
-        <v>0.09751744335517287</v>
+        <v>0.03507429524324834</v>
       </c>
       <c r="J40">
-        <v>0.1717568072490394</v>
+        <v>0.109563086181879</v>
       </c>
       <c r="K40">
-        <v>0.02484324492979795</v>
+        <v>0.02448483987245709</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C41">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E41">
-        <v>20.83035389089491</v>
+        <v>6.175137128215283</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2071,31 +3591,31 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>2196</v>
+        <v>1754</v>
       </c>
       <c r="D42">
-        <v>0.002509979996830225</v>
+        <v>0.001912841107696295</v>
       </c>
       <c r="E42">
-        <v>1.095733601017855</v>
+        <v>0.7465144729940221</v>
       </c>
       <c r="F42">
-        <v>2196</v>
+        <v>1754</v>
       </c>
       <c r="G42">
-        <v>0.07629707152955234</v>
+        <v>0.06030744919553399</v>
       </c>
       <c r="H42">
-        <v>0.5870772371999919</v>
+        <v>0.4826215980574489</v>
       </c>
       <c r="I42">
-        <v>0.09833679103758186</v>
+        <v>0.02350088092498481</v>
       </c>
       <c r="J42">
-        <v>0.2330536851659417</v>
+        <v>0.09263166144955903</v>
       </c>
       <c r="K42">
-        <v>0.02495016914326698</v>
+        <v>0.02141130191739649</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2104,31 +3624,31 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>602</v>
+        <v>896</v>
       </c>
       <c r="D43">
-        <v>0.05673021974507719</v>
+        <v>0.02644412650261074</v>
       </c>
       <c r="E43">
-        <v>0.5608088840963319</v>
+        <v>0.4148854409577325</v>
       </c>
       <c r="F43">
-        <v>602</v>
+        <v>896</v>
       </c>
       <c r="G43">
-        <v>0.02173041773494333</v>
+        <v>0.03084866097196937</v>
       </c>
       <c r="H43">
-        <v>0.2317281211726367</v>
+        <v>0.2738654910353944</v>
       </c>
       <c r="I43">
-        <v>0.1200205993372947</v>
+        <v>0.009416616754606366</v>
       </c>
       <c r="J43">
-        <v>0.1591101124649867</v>
+        <v>0.05719553912058473</v>
       </c>
       <c r="K43">
-        <v>0.007135904394090176</v>
+        <v>0.01062874484341592</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2137,31 +3657,31 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>593</v>
+        <v>4337</v>
       </c>
       <c r="D44">
-        <v>0.05666511796880513</v>
+        <v>0.03763697412796319</v>
       </c>
       <c r="E44">
-        <v>0.603720657993108</v>
+        <v>1.820940588018857</v>
       </c>
       <c r="F44">
-        <v>593</v>
+        <v>4337</v>
       </c>
       <c r="G44">
-        <v>0.02216216071974486</v>
+        <v>0.1431447888026014</v>
       </c>
       <c r="H44">
-        <v>0.2282681305659935</v>
+        <v>1.186319528729655</v>
       </c>
       <c r="I44">
-        <v>0.1506270078243688</v>
+        <v>0.01764726592227817</v>
       </c>
       <c r="J44">
-        <v>0.1749231013236567</v>
+        <v>0.2647664805408567</v>
       </c>
       <c r="K44">
-        <v>0.006915982929058373</v>
+        <v>0.05165246140677482</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2170,43 +3690,43 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>2196</v>
+        <v>1754</v>
       </c>
       <c r="D45">
-        <v>0.003705394454300404</v>
+        <v>0.002837910549715161</v>
       </c>
       <c r="E45">
-        <v>1.107771957060322</v>
+        <v>0.7307208139682189</v>
       </c>
       <c r="F45">
-        <v>2196</v>
+        <v>1754</v>
       </c>
       <c r="G45">
-        <v>0.07740447612013668</v>
+        <v>0.05857915512751788</v>
       </c>
       <c r="H45">
-        <v>0.6035486678592861</v>
+        <v>0.4721459668362513</v>
       </c>
       <c r="I45">
-        <v>0.1067561248783022</v>
+        <v>0.02547384367790073</v>
       </c>
       <c r="J45">
-        <v>0.2150453097419813</v>
+        <v>0.09015854739118367</v>
       </c>
       <c r="K45">
-        <v>0.02680086356122047</v>
+        <v>0.02063039131462574</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C46">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E46">
-        <v>19.26715023932047</v>
+        <v>6.483440870069899</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2217,31 +3737,31 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>2439</v>
+        <v>1740</v>
       </c>
       <c r="D47">
-        <v>0.002559773274697363</v>
+        <v>0.001816266216337681</v>
       </c>
       <c r="E47">
-        <v>1.151682603987865</v>
+        <v>0.7347001909511164</v>
       </c>
       <c r="F47">
-        <v>2439</v>
+        <v>1740</v>
       </c>
       <c r="G47">
-        <v>0.08360034332145005</v>
+        <v>0.05775831383652985</v>
       </c>
       <c r="H47">
-        <v>0.6479941997677088</v>
+        <v>0.4638873530784622</v>
       </c>
       <c r="I47">
-        <v>0.08881360827945173</v>
+        <v>0.03029279399197549</v>
       </c>
       <c r="J47">
-        <v>0.2178496378473938</v>
+        <v>0.09890139300841838</v>
       </c>
       <c r="K47">
-        <v>0.02816245192661881</v>
+        <v>0.02061225613579154</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2250,31 +3770,31 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>1738</v>
+        <v>587</v>
       </c>
       <c r="D48">
-        <v>0.08990440017078072</v>
+        <v>0.02166255342308432</v>
       </c>
       <c r="E48">
-        <v>0.9497914769453928</v>
+        <v>0.3213227649684995</v>
       </c>
       <c r="F48">
-        <v>1738</v>
+        <v>587</v>
       </c>
       <c r="G48">
-        <v>0.0527048030635342</v>
+        <v>0.02031815086957067</v>
       </c>
       <c r="H48">
-        <v>0.5146027638111264</v>
+        <v>0.187397146364674</v>
       </c>
       <c r="I48">
-        <v>0.1232006518403068</v>
+        <v>0.008928550523705781</v>
       </c>
       <c r="J48">
-        <v>0.1883240558672696</v>
+        <v>0.0759215725120157</v>
       </c>
       <c r="K48">
-        <v>0.01748781662900001</v>
+        <v>0.007060324540361762</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2283,31 +3803,31 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>1713</v>
+        <v>4018</v>
       </c>
       <c r="D49">
-        <v>0.08336224895901978</v>
+        <v>0.03330846945755184</v>
       </c>
       <c r="E49">
-        <v>0.9505765370558947</v>
+        <v>1.729264901019633</v>
       </c>
       <c r="F49">
-        <v>1713</v>
+        <v>4018</v>
       </c>
       <c r="G49">
-        <v>0.05225256783887744</v>
+        <v>0.1360429273918271</v>
       </c>
       <c r="H49">
-        <v>0.4912624903954566</v>
+        <v>1.122422303538769</v>
       </c>
       <c r="I49">
-        <v>0.1378796681528911</v>
+        <v>0.01629867672454566</v>
       </c>
       <c r="J49">
-        <v>0.2009498861152679</v>
+        <v>0.2597133519593626</v>
       </c>
       <c r="K49">
-        <v>0.01692010567057878</v>
+        <v>0.04823528265114874</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2316,43 +3836,43 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>2439</v>
+        <v>1740</v>
       </c>
       <c r="D50">
-        <v>0.003955705906264484</v>
+        <v>0.002906517358496785</v>
       </c>
       <c r="E50">
-        <v>1.192302428069524</v>
+        <v>0.7642648160690442</v>
       </c>
       <c r="F50">
-        <v>2439</v>
+        <v>1740</v>
       </c>
       <c r="G50">
-        <v>0.08594539284240454</v>
+        <v>0.05924658954609185</v>
       </c>
       <c r="H50">
-        <v>0.6660442216088995</v>
+        <v>0.4840095331892371</v>
       </c>
       <c r="I50">
-        <v>0.09819488157518208</v>
+        <v>0.03542311722412705</v>
       </c>
       <c r="J50">
-        <v>0.2241839278722182</v>
+        <v>0.1007988909259439</v>
       </c>
       <c r="K50">
-        <v>0.03002851654309779</v>
+        <v>0.02069524477701634</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C51">
-        <v>110025</v>
+        <v>31785</v>
       </c>
       <c r="E51">
-        <v>18.96542009769473</v>
+        <v>6.080219149123877</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2363,31 +3883,31 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>2285.5</v>
+        <v>1771</v>
       </c>
       <c r="D52">
-        <v>0.00243753157556057</v>
+        <v>0.001795655814930797</v>
       </c>
       <c r="E52">
-        <v>1.060973444022238</v>
+        <v>0.727575205033645</v>
       </c>
       <c r="F52">
-        <v>2285.5</v>
+        <v>1771</v>
       </c>
       <c r="G52">
-        <v>0.07707148584304377</v>
+        <v>0.05722231604158878</v>
       </c>
       <c r="H52">
-        <v>0.5995733831077814</v>
+        <v>0.4655469075078145</v>
       </c>
       <c r="I52">
-        <v>0.08899451530305669</v>
+        <v>0.02804143133107573</v>
       </c>
       <c r="J52">
-        <v>0.1916764439432882</v>
+        <v>0.09480649535544217</v>
       </c>
       <c r="K52">
-        <v>0.02568316410761327</v>
+        <v>0.02004354679957032</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2396,31 +3916,31 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>1152.8</v>
+        <v>719</v>
       </c>
       <c r="D53">
-        <v>0.07716016344493255</v>
+        <v>0.02561128372326493</v>
       </c>
       <c r="E53">
-        <v>0.7897804099950008</v>
+        <v>0.3351693829754367</v>
       </c>
       <c r="F53">
-        <v>1152.8</v>
+        <v>719</v>
       </c>
       <c r="G53">
-        <v>0.03887800215743482</v>
+        <v>0.02314271603245288</v>
       </c>
       <c r="H53">
-        <v>0.3895789061789401</v>
+        <v>0.2213628130266443</v>
       </c>
       <c r="I53">
-        <v>0.1250756853842176</v>
+        <v>0.009190860902890563</v>
       </c>
       <c r="J53">
-        <v>0.1846141237765551</v>
+        <v>0.04853921674657613</v>
       </c>
       <c r="K53">
-        <v>0.01278325602179393</v>
+        <v>0.008151184651069343</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2429,31 +3949,31 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>2382.7</v>
+        <v>4154</v>
       </c>
       <c r="D54">
-        <v>0.07959456398384646</v>
+        <v>0.03811778919771314</v>
       </c>
       <c r="E54">
-        <v>1.301019579009153</v>
+        <v>1.78171907691285</v>
       </c>
       <c r="F54">
-        <v>2382.7</v>
+        <v>4154</v>
       </c>
       <c r="G54">
-        <v>0.08080502073280513</v>
+        <v>0.1373303061118349</v>
       </c>
       <c r="H54">
-        <v>0.7151243935688398</v>
+        <v>1.157861267216504</v>
       </c>
       <c r="I54">
-        <v>0.135717072233092</v>
+        <v>0.01885444286745042</v>
       </c>
       <c r="J54">
-        <v>0.2613194868317805</v>
+        <v>0.2700658965623006</v>
       </c>
       <c r="K54">
-        <v>0.02692781869554892</v>
+        <v>0.04891995526850224</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2462,47 +3982,5887 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>2285.5</v>
+        <v>1771</v>
       </c>
       <c r="D55">
-        <v>0.003607100970111787</v>
+        <v>0.002655717311426997</v>
       </c>
       <c r="E55">
-        <v>1.069730966107454</v>
+        <v>0.7712094780290499</v>
       </c>
       <c r="F55">
-        <v>2285.5</v>
+        <v>1771</v>
       </c>
       <c r="G55">
-        <v>0.0769986349856481</v>
+        <v>0.05766056256834418</v>
       </c>
       <c r="H55">
-        <v>0.6035333580221049</v>
+        <v>0.5033120512962341</v>
       </c>
       <c r="I55">
-        <v>0.09592295886250213</v>
+        <v>0.03102174086961895</v>
       </c>
       <c r="J55">
-        <v>0.1890450095525011</v>
+        <v>0.09552262688521296</v>
       </c>
       <c r="K55">
-        <v>0.02612918821396306</v>
+        <v>0.02037252183072269</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>31785</v>
+      </c>
+      <c r="E56">
+        <v>6.216648634872399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C56">
-        <v>110025</v>
-      </c>
-      <c r="E56">
-        <v>20.65864495754941</v>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1722</v>
+      </c>
+      <c r="D57">
+        <v>0.001874885056167841</v>
+      </c>
+      <c r="E57">
+        <v>0.7560681710019708</v>
+      </c>
+      <c r="F57">
+        <v>1722</v>
+      </c>
+      <c r="G57">
+        <v>0.05875439802184701</v>
+      </c>
+      <c r="H57">
+        <v>0.4827609015628695</v>
+      </c>
+      <c r="I57">
+        <v>0.0307630083989352</v>
+      </c>
+      <c r="J57">
+        <v>0.09859926241915673</v>
+      </c>
+      <c r="K57">
+        <v>0.02094462420791388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>491</v>
+      </c>
+      <c r="D58">
+        <v>0.01776959234848619</v>
+      </c>
+      <c r="E58">
+        <v>0.2369259879924357</v>
+      </c>
+      <c r="F58">
+        <v>491</v>
+      </c>
+      <c r="G58">
+        <v>0.01615691476035863</v>
+      </c>
+      <c r="H58">
+        <v>0.1520219676895067</v>
+      </c>
+      <c r="I58">
+        <v>0.006660096463747323</v>
+      </c>
+      <c r="J58">
+        <v>0.03928458306472749</v>
+      </c>
+      <c r="K58">
+        <v>0.005604288657195866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>2461</v>
+      </c>
+      <c r="D59">
+        <v>0.02948959125205874</v>
+      </c>
+      <c r="E59">
+        <v>1.070933397044428</v>
+      </c>
+      <c r="F59">
+        <v>2461</v>
+      </c>
+      <c r="G59">
+        <v>0.08193606464192271</v>
+      </c>
+      <c r="H59">
+        <v>0.6957081649452448</v>
+      </c>
+      <c r="I59">
+        <v>0.01343332359101623</v>
+      </c>
+      <c r="J59">
+        <v>0.16297754610423</v>
+      </c>
+      <c r="K59">
+        <v>0.02879907190799713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>1722</v>
+      </c>
+      <c r="D60">
+        <v>0.002688455977477133</v>
+      </c>
+      <c r="E60">
+        <v>0.7208027320448309</v>
+      </c>
+      <c r="F60">
+        <v>1722</v>
+      </c>
+      <c r="G60">
+        <v>0.05625014950055629</v>
+      </c>
+      <c r="H60">
+        <v>0.4591858097119257</v>
+      </c>
+      <c r="I60">
+        <v>0.03318985644727945</v>
+      </c>
+      <c r="J60">
+        <v>0.09134584770072252</v>
+      </c>
+      <c r="K60">
+        <v>0.01977125508710742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>31785</v>
+      </c>
+      <c r="E61">
+        <v>6.063535212073475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1777</v>
+      </c>
+      <c r="D62">
+        <v>0.001855004695244133</v>
+      </c>
+      <c r="E62">
+        <v>0.7353817890398204</v>
+      </c>
+      <c r="F62">
+        <v>1777</v>
+      </c>
+      <c r="G62">
+        <v>0.05758159596007317</v>
+      </c>
+      <c r="H62">
+        <v>0.4714176479028538</v>
+      </c>
+      <c r="I62">
+        <v>0.02879084262531251</v>
+      </c>
+      <c r="J62">
+        <v>0.09440794982947409</v>
+      </c>
+      <c r="K62">
+        <v>0.02056799072306603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1016</v>
+      </c>
+      <c r="D63">
+        <v>0.0390323813771829</v>
+      </c>
+      <c r="E63">
+        <v>0.4959269049577415</v>
+      </c>
+      <c r="F63">
+        <v>1016</v>
+      </c>
+      <c r="G63">
+        <v>0.03483927459456027</v>
+      </c>
+      <c r="H63">
+        <v>0.328846198390238</v>
+      </c>
+      <c r="I63">
+        <v>0.01503133529331535</v>
+      </c>
+      <c r="J63">
+        <v>0.06766609440091997</v>
+      </c>
+      <c r="K63">
+        <v>0.0121501280227676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1831</v>
+      </c>
+      <c r="D64">
+        <v>0.03922563919331878</v>
+      </c>
+      <c r="E64">
+        <v>0.8357839459786192</v>
+      </c>
+      <c r="F64">
+        <v>1831</v>
+      </c>
+      <c r="G64">
+        <v>0.06172093737404794</v>
+      </c>
+      <c r="H64">
+        <v>0.5434800155926496</v>
+      </c>
+      <c r="I64">
+        <v>0.01598210562951863</v>
+      </c>
+      <c r="J64">
+        <v>0.1266689959447831</v>
+      </c>
+      <c r="K64">
+        <v>0.0216499351663515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1777</v>
+      </c>
+      <c r="D65">
+        <v>0.002817070460878313</v>
+      </c>
+      <c r="E65">
+        <v>0.7470925920642912</v>
+      </c>
+      <c r="F65">
+        <v>1777</v>
+      </c>
+      <c r="G65">
+        <v>0.058568722801283</v>
+      </c>
+      <c r="H65">
+        <v>0.4765060117933899</v>
+      </c>
+      <c r="I65">
+        <v>0.03170340263750404</v>
+      </c>
+      <c r="J65">
+        <v>0.09575488162226975</v>
+      </c>
+      <c r="K65">
+        <v>0.02068258274812251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>31785</v>
+      </c>
+      <c r="E66">
+        <v>6.099299508961849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1511</v>
+      </c>
+      <c r="D67">
+        <v>0.001597456051968038</v>
+      </c>
+      <c r="E67">
+        <v>0.6491920170374215</v>
+      </c>
+      <c r="F67">
+        <v>1511</v>
+      </c>
+      <c r="G67">
+        <v>0.05082009313628078</v>
+      </c>
+      <c r="H67">
+        <v>0.412232777918689</v>
+      </c>
+      <c r="I67">
+        <v>0.02625606255605817</v>
+      </c>
+      <c r="J67">
+        <v>0.08637461892794818</v>
+      </c>
+      <c r="K67">
+        <v>0.01788934879004955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>482</v>
+      </c>
+      <c r="D68">
+        <v>0.01731181249488145</v>
+      </c>
+      <c r="E68">
+        <v>0.2412117250496522</v>
+      </c>
+      <c r="F68">
+        <v>482</v>
+      </c>
+      <c r="G68">
+        <v>0.01667506922967732</v>
+      </c>
+      <c r="H68">
+        <v>0.1547520071035251</v>
+      </c>
+      <c r="I68">
+        <v>0.00508144439663738</v>
+      </c>
+      <c r="J68">
+        <v>0.04111601982731372</v>
+      </c>
+      <c r="K68">
+        <v>0.005827857065014541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>1896</v>
+      </c>
+      <c r="D69">
+        <v>0.02507473179139197</v>
+      </c>
+      <c r="E69">
+        <v>0.8836739349644631</v>
+      </c>
+      <c r="F69">
+        <v>1896</v>
+      </c>
+      <c r="G69">
+        <v>0.06376736948732287</v>
+      </c>
+      <c r="H69">
+        <v>0.5820905381115153</v>
+      </c>
+      <c r="I69">
+        <v>0.01059251383412629</v>
+      </c>
+      <c r="J69">
+        <v>0.1344264973886311</v>
+      </c>
+      <c r="K69">
+        <v>0.02300143614411354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>1511</v>
+      </c>
+      <c r="D70">
+        <v>0.002386662061326206</v>
+      </c>
+      <c r="E70">
+        <v>0.6430230149999261</v>
+      </c>
+      <c r="F70">
+        <v>1511</v>
+      </c>
+      <c r="G70">
+        <v>0.04954262694809586</v>
+      </c>
+      <c r="H70">
+        <v>0.4089603073662147</v>
+      </c>
+      <c r="I70">
+        <v>0.02938868559431285</v>
+      </c>
+      <c r="J70">
+        <v>0.0831331746885553</v>
+      </c>
+      <c r="K70">
+        <v>0.01773414155468345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>31785</v>
+      </c>
+      <c r="E71">
+        <v>6.263233029749244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>2189</v>
+      </c>
+      <c r="D72">
+        <v>0.002325352048501372</v>
+      </c>
+      <c r="E72">
+        <v>0.9226149029564112</v>
+      </c>
+      <c r="F72">
+        <v>2189</v>
+      </c>
+      <c r="G72">
+        <v>0.07410536555107683</v>
+      </c>
+      <c r="H72">
+        <v>0.5954733183607459</v>
+      </c>
+      <c r="I72">
+        <v>0.0332474677124992</v>
+      </c>
+      <c r="J72">
+        <v>0.1137838235590607</v>
+      </c>
+      <c r="K72">
+        <v>0.02588786405976862</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>2149</v>
+      </c>
+      <c r="D73">
+        <v>0.0728758170735091</v>
+      </c>
+      <c r="E73">
+        <v>1.017401599092409</v>
+      </c>
+      <c r="F73">
+        <v>2149</v>
+      </c>
+      <c r="G73">
+        <v>0.07371583767235279</v>
+      </c>
+      <c r="H73">
+        <v>0.6833896316820756</v>
+      </c>
+      <c r="I73">
+        <v>0.03411665500607342</v>
+      </c>
+      <c r="J73">
+        <v>0.1216597456950694</v>
+      </c>
+      <c r="K73">
+        <v>0.02560917939990759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>3792</v>
+      </c>
+      <c r="D74">
+        <v>0.07933805091306567</v>
+      </c>
+      <c r="E74">
+        <v>1.845906401984394</v>
+      </c>
+      <c r="F74">
+        <v>3792</v>
+      </c>
+      <c r="G74">
+        <v>0.1368660179432482</v>
+      </c>
+      <c r="H74">
+        <v>1.201322616543621</v>
+      </c>
+      <c r="I74">
+        <v>0.0386155255837366</v>
+      </c>
+      <c r="J74">
+        <v>0.2721870207460597</v>
+      </c>
+      <c r="K74">
+        <v>0.04866000369656831</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2189</v>
+      </c>
+      <c r="D75">
+        <v>0.003742970526218414</v>
+      </c>
+      <c r="E75">
+        <v>0.9972705950494856</v>
+      </c>
+      <c r="F75">
+        <v>2189</v>
+      </c>
+      <c r="G75">
+        <v>0.07912775315344334</v>
+      </c>
+      <c r="H75">
+        <v>0.6426205966854468</v>
+      </c>
+      <c r="I75">
+        <v>0.03857531654648483</v>
+      </c>
+      <c r="J75">
+        <v>0.122647067415528</v>
+      </c>
+      <c r="K75">
+        <v>0.02807139314245433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>31785</v>
+      </c>
+      <c r="E76">
+        <v>6.430836644838564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>2237</v>
+      </c>
+      <c r="D77">
+        <v>0.002444229437969625</v>
+      </c>
+      <c r="E77">
+        <v>0.9936459400923923</v>
+      </c>
+      <c r="F77">
+        <v>2237</v>
+      </c>
+      <c r="G77">
+        <v>0.07892497419379652</v>
+      </c>
+      <c r="H77">
+        <v>0.6432382327038795</v>
+      </c>
+      <c r="I77">
+        <v>0.03415803634561598</v>
+      </c>
+      <c r="J77">
+        <v>0.1229696458904073</v>
+      </c>
+      <c r="K77">
+        <v>0.02797613898292184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1300</v>
+      </c>
+      <c r="D78">
+        <v>0.04426605207845569</v>
+      </c>
+      <c r="E78">
+        <v>0.6493580279638991</v>
+      </c>
+      <c r="F78">
+        <v>1300</v>
+      </c>
+      <c r="G78">
+        <v>0.04776600759942085</v>
+      </c>
+      <c r="H78">
+        <v>0.4346540465485305</v>
+      </c>
+      <c r="I78">
+        <v>0.01637077413033694</v>
+      </c>
+      <c r="J78">
+        <v>0.08302533649839461</v>
+      </c>
+      <c r="K78">
+        <v>0.01647661696188152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>1285</v>
+      </c>
+      <c r="D79">
+        <v>0.04080239997711033</v>
+      </c>
+      <c r="E79">
+        <v>0.6637769390363246</v>
+      </c>
+      <c r="F79">
+        <v>1285</v>
+      </c>
+      <c r="G79">
+        <v>0.04620884289033711</v>
+      </c>
+      <c r="H79">
+        <v>0.4196946123847738</v>
+      </c>
+      <c r="I79">
+        <v>0.015237215324305</v>
+      </c>
+      <c r="J79">
+        <v>0.1171874966239557</v>
+      </c>
+      <c r="K79">
+        <v>0.01591459102928638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>2237</v>
+      </c>
+      <c r="D80">
+        <v>0.003685364732518792</v>
+      </c>
+      <c r="E80">
+        <v>0.98972438799683</v>
+      </c>
+      <c r="F80">
+        <v>2237</v>
+      </c>
+      <c r="G80">
+        <v>0.07827277854084969</v>
+      </c>
+      <c r="H80">
+        <v>0.642424714518711</v>
+      </c>
+      <c r="I80">
+        <v>0.03707505320198834</v>
+      </c>
+      <c r="J80">
+        <v>0.1196834897855297</v>
+      </c>
+      <c r="K80">
+        <v>0.02735213143751025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81">
+        <v>31785</v>
+      </c>
+      <c r="E81">
+        <v>6.395864623016678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2291</v>
+      </c>
+      <c r="D82">
+        <v>0.002500677481293678</v>
+      </c>
+      <c r="E82">
+        <v>1.032597725978121</v>
+      </c>
+      <c r="F82">
+        <v>2291</v>
+      </c>
+      <c r="G82">
+        <v>0.08105576667003334</v>
+      </c>
+      <c r="H82">
+        <v>0.6630227385321632</v>
+      </c>
+      <c r="I82">
+        <v>0.03954101772978902</v>
+      </c>
+      <c r="J82">
+        <v>0.1317700752988458</v>
+      </c>
+      <c r="K82">
+        <v>0.02878104348201305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1848</v>
+      </c>
+      <c r="D83">
+        <v>0.08695393626112491</v>
+      </c>
+      <c r="E83">
+        <v>0.8887688429094851</v>
+      </c>
+      <c r="F83">
+        <v>1848</v>
+      </c>
+      <c r="G83">
+        <v>0.06268528837244958</v>
+      </c>
+      <c r="H83">
+        <v>0.6033458178862929</v>
+      </c>
+      <c r="I83">
+        <v>0.02565843495540321</v>
+      </c>
+      <c r="J83">
+        <v>0.1092136265942827</v>
+      </c>
+      <c r="K83">
+        <v>0.02154695079661906</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>3946</v>
+      </c>
+      <c r="D84">
+        <v>0.0671220407821238</v>
+      </c>
+      <c r="E84">
+        <v>1.782769258948974</v>
+      </c>
+      <c r="F84">
+        <v>3946</v>
+      </c>
+      <c r="G84">
+        <v>0.1322280878666788</v>
+      </c>
+      <c r="H84">
+        <v>1.148833249579184</v>
+      </c>
+      <c r="I84">
+        <v>0.03460138977970928</v>
+      </c>
+      <c r="J84">
+        <v>0.2786018797196448</v>
+      </c>
+      <c r="K84">
+        <v>0.0463154319440946</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>2291</v>
+      </c>
+      <c r="D85">
+        <v>0.003595262300223112</v>
+      </c>
+      <c r="E85">
+        <v>0.9842061850940809</v>
+      </c>
+      <c r="F85">
+        <v>2291</v>
+      </c>
+      <c r="G85">
+        <v>0.07747161039151251</v>
+      </c>
+      <c r="H85">
+        <v>0.6308442930458114</v>
+      </c>
+      <c r="I85">
+        <v>0.03979815833736211</v>
+      </c>
+      <c r="J85">
+        <v>0.1245699928840622</v>
+      </c>
+      <c r="K85">
+        <v>0.02735264215152711</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86">
+        <v>31785</v>
+      </c>
+      <c r="E86">
+        <v>6.10186936694663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2152</v>
+      </c>
+      <c r="D87">
+        <v>0.00245553650893271</v>
+      </c>
+      <c r="E87">
+        <v>0.9764804430305958</v>
+      </c>
+      <c r="F87">
+        <v>2152</v>
+      </c>
+      <c r="G87">
+        <v>0.07684938423335552</v>
+      </c>
+      <c r="H87">
+        <v>0.630293247057125</v>
+      </c>
+      <c r="I87">
+        <v>0.03685211692936718</v>
+      </c>
+      <c r="J87">
+        <v>0.1221766639500856</v>
+      </c>
+      <c r="K87">
+        <v>0.02697477897163481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>968</v>
+      </c>
+      <c r="D88">
+        <v>0.0382365076802671</v>
+      </c>
+      <c r="E88">
+        <v>0.4927233270136639</v>
+      </c>
+      <c r="F88">
+        <v>968</v>
+      </c>
+      <c r="G88">
+        <v>0.03479250147938728</v>
+      </c>
+      <c r="H88">
+        <v>0.3289392527658492</v>
+      </c>
+      <c r="I88">
+        <v>0.01241425087209791</v>
+      </c>
+      <c r="J88">
+        <v>0.06751594343222678</v>
+      </c>
+      <c r="K88">
+        <v>0.01208565873093903</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>4878</v>
+      </c>
+      <c r="D89">
+        <v>0.05306075257249177</v>
+      </c>
+      <c r="E89">
+        <v>2.231735008070245</v>
+      </c>
+      <c r="F89">
+        <v>4878</v>
+      </c>
+      <c r="G89">
+        <v>0.1734687114367262</v>
+      </c>
+      <c r="H89">
+        <v>1.460929582477547</v>
+      </c>
+      <c r="I89">
+        <v>0.02323724748566747</v>
+      </c>
+      <c r="J89">
+        <v>0.3259511281503364</v>
+      </c>
+      <c r="K89">
+        <v>0.06105328863486648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>2152</v>
+      </c>
+      <c r="D90">
+        <v>0.003652251674793661</v>
+      </c>
+      <c r="E90">
+        <v>1.009210368967615</v>
+      </c>
+      <c r="F90">
+        <v>2152</v>
+      </c>
+      <c r="G90">
+        <v>0.07741559622809291</v>
+      </c>
+      <c r="H90">
+        <v>0.6298844676930457</v>
+      </c>
+      <c r="I90">
+        <v>0.03975420270580798</v>
+      </c>
+      <c r="J90">
+        <v>0.1508574319304898</v>
+      </c>
+      <c r="K90">
+        <v>0.02733758289832622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>31785</v>
+      </c>
+      <c r="E91">
+        <v>6.130637235823087</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1901</v>
+      </c>
+      <c r="D92">
+        <v>0.002127707120962441</v>
+      </c>
+      <c r="E92">
+        <v>0.8476131180068478</v>
+      </c>
+      <c r="F92">
+        <v>1901</v>
+      </c>
+      <c r="G92">
+        <v>0.06627275433856994</v>
+      </c>
+      <c r="H92">
+        <v>0.5431951624341309</v>
+      </c>
+      <c r="I92">
+        <v>0.03415794938337058</v>
+      </c>
+      <c r="J92">
+        <v>0.1078790556639433</v>
+      </c>
+      <c r="K92">
+        <v>0.02354897861368954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>586</v>
+      </c>
+      <c r="D93">
+        <v>0.02288325596600771</v>
+      </c>
+      <c r="E93">
+        <v>0.3019247630145401</v>
+      </c>
+      <c r="F93">
+        <v>586</v>
+      </c>
+      <c r="G93">
+        <v>0.02033130940981209</v>
+      </c>
+      <c r="H93">
+        <v>0.1937063779914752</v>
+      </c>
+      <c r="I93">
+        <v>0.00897538207937032</v>
+      </c>
+      <c r="J93">
+        <v>0.04996830178424716</v>
+      </c>
+      <c r="K93">
+        <v>0.007121440954506397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>736</v>
+      </c>
+      <c r="D94">
+        <v>0.02486794092692435</v>
+      </c>
+      <c r="E94">
+        <v>0.3818851429969072</v>
+      </c>
+      <c r="F94">
+        <v>736</v>
+      </c>
+      <c r="G94">
+        <v>0.02639614348299801</v>
+      </c>
+      <c r="H94">
+        <v>0.24259484175127</v>
+      </c>
+      <c r="I94">
+        <v>0.01070378604345024</v>
+      </c>
+      <c r="J94">
+        <v>0.06525604927446693</v>
+      </c>
+      <c r="K94">
+        <v>0.009062142227776349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>1901</v>
+      </c>
+      <c r="D95">
+        <v>0.003140050452202559</v>
+      </c>
+      <c r="E95">
+        <v>0.8536728440085426</v>
+      </c>
+      <c r="F95">
+        <v>1901</v>
+      </c>
+      <c r="G95">
+        <v>0.06648331834003329</v>
+      </c>
+      <c r="H95">
+        <v>0.5442886793753132</v>
+      </c>
+      <c r="I95">
+        <v>0.03823370405007154</v>
+      </c>
+      <c r="J95">
+        <v>0.1079390741651878</v>
+      </c>
+      <c r="K95">
+        <v>0.02379358373582363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96">
+        <v>31785</v>
+      </c>
+      <c r="E96">
+        <v>6.159556266851723</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>2088</v>
+      </c>
+      <c r="D97">
+        <v>0.002426179475151002</v>
+      </c>
+      <c r="E97">
+        <v>0.931498751975596</v>
+      </c>
+      <c r="F97">
+        <v>2088</v>
+      </c>
+      <c r="G97">
+        <v>0.07297181815374643</v>
+      </c>
+      <c r="H97">
+        <v>0.5970051346812397</v>
+      </c>
+      <c r="I97">
+        <v>0.03552660974673927</v>
+      </c>
+      <c r="J97">
+        <v>0.1205884433584288</v>
+      </c>
+      <c r="K97">
+        <v>0.02584325731731951</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>1266</v>
+      </c>
+      <c r="D98">
+        <v>0.04590099561028183</v>
+      </c>
+      <c r="E98">
+        <v>0.6385383519809693</v>
+      </c>
+      <c r="F98">
+        <v>1266</v>
+      </c>
+      <c r="G98">
+        <v>0.04630766005720943</v>
+      </c>
+      <c r="H98">
+        <v>0.4262088554678485</v>
+      </c>
+      <c r="I98">
+        <v>0.01911270641721785</v>
+      </c>
+      <c r="J98">
+        <v>0.08162885601632297</v>
+      </c>
+      <c r="K98">
+        <v>0.01592852175235748</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>4042</v>
+      </c>
+      <c r="D99">
+        <v>0.05640986189246178</v>
+      </c>
+      <c r="E99">
+        <v>1.909212421975099</v>
+      </c>
+      <c r="F99">
+        <v>4042</v>
+      </c>
+      <c r="G99">
+        <v>0.143956171697937</v>
+      </c>
+      <c r="H99">
+        <v>1.231331613846123</v>
+      </c>
+      <c r="I99">
+        <v>0.02985235804226249</v>
+      </c>
+      <c r="J99">
+        <v>0.2964615774108097</v>
+      </c>
+      <c r="K99">
+        <v>0.05111991928424686</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>2088</v>
+      </c>
+      <c r="D100">
+        <v>0.003539790515787899</v>
+      </c>
+      <c r="E100">
+        <v>0.9583212300203741</v>
+      </c>
+      <c r="F100">
+        <v>2088</v>
+      </c>
+      <c r="G100">
+        <v>0.07540300826076418</v>
+      </c>
+      <c r="H100">
+        <v>0.6123240705346689</v>
+      </c>
+      <c r="I100">
+        <v>0.03912501118611544</v>
+      </c>
+      <c r="J100">
+        <v>0.1221615627873689</v>
+      </c>
+      <c r="K100">
+        <v>0.02659718866925687</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101">
+        <v>31785</v>
+      </c>
+      <c r="E101">
+        <v>6.087982225231826</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1940</v>
+      </c>
+      <c r="D102">
+        <v>0.002157345064915717</v>
+      </c>
+      <c r="E102">
+        <v>0.8935968099394813</v>
+      </c>
+      <c r="F102">
+        <v>1940</v>
+      </c>
+      <c r="G102">
+        <v>0.07110107131302357</v>
+      </c>
+      <c r="H102">
+        <v>0.5718467978294939</v>
+      </c>
+      <c r="I102">
+        <v>0.03709929506294429</v>
+      </c>
+      <c r="J102">
+        <v>0.1126372930593789</v>
+      </c>
+      <c r="K102">
+        <v>0.02452144306153059</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1090</v>
+      </c>
+      <c r="D103">
+        <v>0.04386399430222809</v>
+      </c>
+      <c r="E103">
+        <v>0.558382949908264</v>
+      </c>
+      <c r="F103">
+        <v>1090</v>
+      </c>
+      <c r="G103">
+        <v>0.03970813378691673</v>
+      </c>
+      <c r="H103">
+        <v>0.3733150949701667</v>
+      </c>
+      <c r="I103">
+        <v>0.01673517329618335</v>
+      </c>
+      <c r="J103">
+        <v>0.07298175420146435</v>
+      </c>
+      <c r="K103">
+        <v>0.01363660965580493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>2925</v>
+      </c>
+      <c r="D104">
+        <v>0.05568209977354854</v>
+      </c>
+      <c r="E104">
+        <v>1.456055629998446</v>
+      </c>
+      <c r="F104">
+        <v>2925</v>
+      </c>
+      <c r="G104">
+        <v>0.1093888663453981</v>
+      </c>
+      <c r="H104">
+        <v>0.9414847135776654</v>
+      </c>
+      <c r="I104">
+        <v>0.0261707779718563</v>
+      </c>
+      <c r="J104">
+        <v>0.2245425113942474</v>
+      </c>
+      <c r="K104">
+        <v>0.03789934003725648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>1940</v>
+      </c>
+      <c r="D105">
+        <v>0.003195791854523122</v>
+      </c>
+      <c r="E105">
+        <v>0.8780850450275466</v>
+      </c>
+      <c r="F105">
+        <v>1940</v>
+      </c>
+      <c r="G105">
+        <v>0.06911951920483261</v>
+      </c>
+      <c r="H105">
+        <v>0.5583670052001253</v>
+      </c>
+      <c r="I105">
+        <v>0.03919862688053399</v>
+      </c>
+      <c r="J105">
+        <v>0.1115545067004859</v>
+      </c>
+      <c r="K105">
+        <v>0.02432542783208191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106">
+        <v>31785</v>
+      </c>
+      <c r="E106">
+        <v>6.123491757083684</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>2101</v>
+      </c>
+      <c r="D107">
+        <v>0.002436686540022492</v>
+      </c>
+      <c r="E107">
+        <v>0.9562567899702117</v>
+      </c>
+      <c r="F107">
+        <v>2101</v>
+      </c>
+      <c r="G107">
+        <v>0.07592702563852072</v>
+      </c>
+      <c r="H107">
+        <v>0.6190482056699693</v>
+      </c>
+      <c r="I107">
+        <v>0.03532247268594801</v>
+      </c>
+      <c r="J107">
+        <v>0.1165523357922211</v>
+      </c>
+      <c r="K107">
+        <v>0.02668053598608822</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>1388</v>
+      </c>
+      <c r="D108">
+        <v>0.08141090930439532</v>
+      </c>
+      <c r="E108">
+        <v>0.725433788029477</v>
+      </c>
+      <c r="F108">
+        <v>1388</v>
+      </c>
+      <c r="G108">
+        <v>0.05067806143779308</v>
+      </c>
+      <c r="H108">
+        <v>0.4962399483192712</v>
+      </c>
+      <c r="I108">
+        <v>0.02129826764576137</v>
+      </c>
+      <c r="J108">
+        <v>0.08576816925778985</v>
+      </c>
+      <c r="K108">
+        <v>0.01719384000170976</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>2696</v>
+      </c>
+      <c r="D109">
+        <v>0.05685914913192391</v>
+      </c>
+      <c r="E109">
+        <v>1.284933496033773</v>
+      </c>
+      <c r="F109">
+        <v>2696</v>
+      </c>
+      <c r="G109">
+        <v>0.09572674857918173</v>
+      </c>
+      <c r="H109">
+        <v>0.8437189596006647</v>
+      </c>
+      <c r="I109">
+        <v>0.02495585638098419</v>
+      </c>
+      <c r="J109">
+        <v>0.1837825985858217</v>
+      </c>
+      <c r="K109">
+        <v>0.03324358630925417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>2101</v>
+      </c>
+      <c r="D110">
+        <v>0.003635219763964415</v>
+      </c>
+      <c r="E110">
+        <v>0.9518237120937556</v>
+      </c>
+      <c r="F110">
+        <v>2101</v>
+      </c>
+      <c r="G110">
+        <v>0.07442284841090441</v>
+      </c>
+      <c r="H110">
+        <v>0.6148289454868063</v>
+      </c>
+      <c r="I110">
+        <v>0.03755746432580054</v>
+      </c>
+      <c r="J110">
+        <v>0.117082201410085</v>
+      </c>
+      <c r="K110">
+        <v>0.02609335503075272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111">
+        <v>31785</v>
+      </c>
+      <c r="E111">
+        <v>6.070711235865019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1727</v>
+      </c>
+      <c r="D112">
+        <v>0.002145828446373343</v>
+      </c>
+      <c r="E112">
+        <v>0.8532687430270016</v>
+      </c>
+      <c r="F112">
+        <v>1727</v>
+      </c>
+      <c r="G112">
+        <v>0.06727997900452465</v>
+      </c>
+      <c r="H112">
+        <v>0.5509360831929371</v>
+      </c>
+      <c r="I112">
+        <v>0.03003335057292134</v>
+      </c>
+      <c r="J112">
+        <v>0.1076418833108619</v>
+      </c>
+      <c r="K112">
+        <v>0.02417437511030585</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>1198</v>
+      </c>
+      <c r="D113">
+        <v>0.03300947055686265</v>
+      </c>
+      <c r="E113">
+        <v>0.5763015799457207</v>
+      </c>
+      <c r="F113">
+        <v>1198</v>
+      </c>
+      <c r="G113">
+        <v>0.04236491501796991</v>
+      </c>
+      <c r="H113">
+        <v>0.3810623040189967</v>
+      </c>
+      <c r="I113">
+        <v>0.01369545550551265</v>
+      </c>
+      <c r="J113">
+        <v>0.07868140330538154</v>
+      </c>
+      <c r="K113">
+        <v>0.01477785198949277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>4163</v>
+      </c>
+      <c r="D114">
+        <v>0.04069115419406444</v>
+      </c>
+      <c r="E114">
+        <v>1.903022374026477</v>
+      </c>
+      <c r="F114">
+        <v>4163</v>
+      </c>
+      <c r="G114">
+        <v>0.1480392885860056</v>
+      </c>
+      <c r="H114">
+        <v>1.247048614663072</v>
+      </c>
+      <c r="I114">
+        <v>0.02016330289188772</v>
+      </c>
+      <c r="J114">
+        <v>0.2751629598205909</v>
+      </c>
+      <c r="K114">
+        <v>0.05229961196891963</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>1727</v>
+      </c>
+      <c r="D115">
+        <v>0.00292885850649327</v>
+      </c>
+      <c r="E115">
+        <v>0.7687610200373456</v>
+      </c>
+      <c r="F115">
+        <v>1727</v>
+      </c>
+      <c r="G115">
+        <v>0.06121117621660233</v>
+      </c>
+      <c r="H115">
+        <v>0.4928391493158415</v>
+      </c>
+      <c r="I115">
+        <v>0.03019918699283153</v>
+      </c>
+      <c r="J115">
+        <v>0.09673529525753111</v>
+      </c>
+      <c r="K115">
+        <v>0.02156843396369368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116">
+        <v>31785</v>
+      </c>
+      <c r="E116">
+        <v>6.232359432731755</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>2013</v>
+      </c>
+      <c r="D117">
+        <v>0.002237712382338941</v>
+      </c>
+      <c r="E117">
+        <v>0.894502573995851</v>
+      </c>
+      <c r="F117">
+        <v>2013</v>
+      </c>
+      <c r="G117">
+        <v>0.07128872931934893</v>
+      </c>
+      <c r="H117">
+        <v>0.5721245332388207</v>
+      </c>
+      <c r="I117">
+        <v>0.03397071501240134</v>
+      </c>
+      <c r="J117">
+        <v>0.1139489058405161</v>
+      </c>
+      <c r="K117">
+        <v>0.02520723082125187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>865</v>
+      </c>
+      <c r="D118">
+        <v>0.03060113987885416</v>
+      </c>
+      <c r="E118">
+        <v>0.4384805749868974</v>
+      </c>
+      <c r="F118">
+        <v>865</v>
+      </c>
+      <c r="G118">
+        <v>0.03176717541646212</v>
+      </c>
+      <c r="H118">
+        <v>0.2910628431709483</v>
+      </c>
+      <c r="I118">
+        <v>0.01057239132933319</v>
+      </c>
+      <c r="J118">
+        <v>0.05966494348831475</v>
+      </c>
+      <c r="K118">
+        <v>0.01106753281783313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>4573</v>
+      </c>
+      <c r="D119">
+        <v>0.04554053535684943</v>
+      </c>
+      <c r="E119">
+        <v>2.096951185027137</v>
+      </c>
+      <c r="F119">
+        <v>4573</v>
+      </c>
+      <c r="G119">
+        <v>0.1628753306576982</v>
+      </c>
+      <c r="H119">
+        <v>1.36083442135714</v>
+      </c>
+      <c r="I119">
+        <v>0.02208339842036366</v>
+      </c>
+      <c r="J119">
+        <v>0.3141680271364748</v>
+      </c>
+      <c r="K119">
+        <v>0.05816416232846677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>2013</v>
+      </c>
+      <c r="D120">
+        <v>0.003327456419356167</v>
+      </c>
+      <c r="E120">
+        <v>0.904954805970192</v>
+      </c>
+      <c r="F120">
+        <v>2013</v>
+      </c>
+      <c r="G120">
+        <v>0.07187852822244167</v>
+      </c>
+      <c r="H120">
+        <v>0.5788788998033851</v>
+      </c>
+      <c r="I120">
+        <v>0.03705505712423474</v>
+      </c>
+      <c r="J120">
+        <v>0.1134178956272081</v>
+      </c>
+      <c r="K120">
+        <v>0.0254949169466272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121">
+        <v>31785</v>
+      </c>
+      <c r="E121">
+        <v>6.123781964997761</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>2214</v>
+      </c>
+      <c r="D122">
+        <v>0.002416704664938152</v>
+      </c>
+      <c r="E122">
+        <v>0.9809036899823695</v>
+      </c>
+      <c r="F122">
+        <v>2214</v>
+      </c>
+      <c r="G122">
+        <v>0.07916400267276913</v>
+      </c>
+      <c r="H122">
+        <v>0.6331724543124437</v>
+      </c>
+      <c r="I122">
+        <v>0.03096207836642861</v>
+      </c>
+      <c r="J122">
+        <v>0.1236665953183547</v>
+      </c>
+      <c r="K122">
+        <v>0.02785786113236099</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>1983</v>
+      </c>
+      <c r="D123">
+        <v>0.05249099666252732</v>
+      </c>
+      <c r="E123">
+        <v>0.9798237100476399</v>
+      </c>
+      <c r="F123">
+        <v>1983</v>
+      </c>
+      <c r="G123">
+        <v>0.0711103891953826</v>
+      </c>
+      <c r="H123">
+        <v>0.6349128955043852</v>
+      </c>
+      <c r="I123">
+        <v>0.02172007097397</v>
+      </c>
+      <c r="J123">
+        <v>0.1500584214227274</v>
+      </c>
+      <c r="K123">
+        <v>0.0250116758979857</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>4033</v>
+      </c>
+      <c r="D124">
+        <v>0.05485025979578495</v>
+      </c>
+      <c r="E124">
+        <v>1.874826911953278</v>
+      </c>
+      <c r="F124">
+        <v>4033</v>
+      </c>
+      <c r="G124">
+        <v>0.1444124594563618</v>
+      </c>
+      <c r="H124">
+        <v>1.220485338126309</v>
+      </c>
+      <c r="I124">
+        <v>0.02622177498415112</v>
+      </c>
+      <c r="J124">
+        <v>0.2742614310700446</v>
+      </c>
+      <c r="K124">
+        <v>0.05143398407381028</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>2214</v>
+      </c>
+      <c r="D125">
+        <v>0.003617870272137225</v>
+      </c>
+      <c r="E125">
+        <v>0.9707197831012309</v>
+      </c>
+      <c r="F125">
+        <v>2214</v>
+      </c>
+      <c r="G125">
+        <v>0.07781488250475377</v>
+      </c>
+      <c r="H125">
+        <v>0.624704482848756</v>
+      </c>
+      <c r="I125">
+        <v>0.03329317504540086</v>
+      </c>
+      <c r="J125">
+        <v>0.1228128022048622</v>
+      </c>
+      <c r="K125">
+        <v>0.02745226607657969</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126">
+        <v>31785</v>
+      </c>
+      <c r="E126">
+        <v>6.226827533217147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1874</v>
+      </c>
+      <c r="D127">
+        <v>0.002220141119323671</v>
+      </c>
+      <c r="E127">
+        <v>0.8879054349381477</v>
+      </c>
+      <c r="F127">
+        <v>1874</v>
+      </c>
+      <c r="G127">
+        <v>0.07012240402400494</v>
+      </c>
+      <c r="H127">
+        <v>0.5647880227770656</v>
+      </c>
+      <c r="I127">
+        <v>0.0344770469237119</v>
+      </c>
+      <c r="J127">
+        <v>0.1167229042621329</v>
+      </c>
+      <c r="K127">
+        <v>0.02521681832149625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>404</v>
+      </c>
+      <c r="D128">
+        <v>0.01847689272835851</v>
+      </c>
+      <c r="E128">
+        <v>0.2188214479247108</v>
+      </c>
+      <c r="F128">
+        <v>404</v>
+      </c>
+      <c r="G128">
+        <v>0.01457787165418267</v>
+      </c>
+      <c r="H128">
+        <v>0.1378605439094827</v>
+      </c>
+      <c r="I128">
+        <v>0.006089184316806495</v>
+      </c>
+      <c r="J128">
+        <v>0.03975377324968576</v>
+      </c>
+      <c r="K128">
+        <v>0.005086283781565726</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>5110</v>
+      </c>
+      <c r="D129">
+        <v>0.03469485498499125</v>
+      </c>
+      <c r="E129">
+        <v>2.292413161951117</v>
+      </c>
+      <c r="F129">
+        <v>5110</v>
+      </c>
+      <c r="G129">
+        <v>0.1787965162657201</v>
+      </c>
+      <c r="H129">
+        <v>1.487646048772149</v>
+      </c>
+      <c r="I129">
+        <v>0.01795460085850209</v>
+      </c>
+      <c r="J129">
+        <v>0.3444692137418315</v>
+      </c>
+      <c r="K129">
+        <v>0.06516122352331877</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>1874</v>
+      </c>
+      <c r="D130">
+        <v>0.00309182156343013</v>
+      </c>
+      <c r="E130">
+        <v>0.8490809879731387</v>
+      </c>
+      <c r="F130">
+        <v>1874</v>
+      </c>
+      <c r="G130">
+        <v>0.06708639045245945</v>
+      </c>
+      <c r="H130">
+        <v>0.5393593201879412</v>
+      </c>
+      <c r="I130">
+        <v>0.03587596397846937</v>
+      </c>
+      <c r="J130">
+        <v>0.110035783960484</v>
+      </c>
+      <c r="K130">
+        <v>0.02391433564480394</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131">
+        <v>31785</v>
+      </c>
+      <c r="E131">
+        <v>6.074435637332499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1729</v>
+      </c>
+      <c r="D132">
+        <v>0.001821015845052898</v>
+      </c>
+      <c r="E132">
+        <v>0.7598547489615157</v>
+      </c>
+      <c r="F132">
+        <v>1729</v>
+      </c>
+      <c r="G132">
+        <v>0.05985903507098556</v>
+      </c>
+      <c r="H132">
+        <v>0.4876996213570237</v>
+      </c>
+      <c r="I132">
+        <v>0.02689751877915114</v>
+      </c>
+      <c r="J132">
+        <v>0.09874139458406717</v>
+      </c>
+      <c r="K132">
+        <v>0.02125217020511627</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>705</v>
+      </c>
+      <c r="D133">
+        <v>0.0239899120060727</v>
+      </c>
+      <c r="E133">
+        <v>0.3537314749555662</v>
+      </c>
+      <c r="F133">
+        <v>705</v>
+      </c>
+      <c r="G133">
+        <v>0.02521258289925754</v>
+      </c>
+      <c r="H133">
+        <v>0.2322388596367091</v>
+      </c>
+      <c r="I133">
+        <v>0.008786037331447005</v>
+      </c>
+      <c r="J133">
+        <v>0.0524699364323169</v>
+      </c>
+      <c r="K133">
+        <v>0.008603316498920321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>822</v>
+      </c>
+      <c r="D134">
+        <v>0.02885084424633533</v>
+      </c>
+      <c r="E134">
+        <v>0.4155744860181585</v>
+      </c>
+      <c r="F134">
+        <v>822</v>
+      </c>
+      <c r="G134">
+        <v>0.02951828250661492</v>
+      </c>
+      <c r="H134">
+        <v>0.2703195360954851</v>
+      </c>
+      <c r="I134">
+        <v>0.01044958084821701</v>
+      </c>
+      <c r="J134">
+        <v>0.06391479156445712</v>
+      </c>
+      <c r="K134">
+        <v>0.01015544927213341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>1729</v>
+      </c>
+      <c r="D135">
+        <v>0.002785242046229541</v>
+      </c>
+      <c r="E135">
+        <v>0.7716081269318238</v>
+      </c>
+      <c r="F135">
+        <v>1729</v>
+      </c>
+      <c r="G135">
+        <v>0.06088544731028378</v>
+      </c>
+      <c r="H135">
+        <v>0.4953688373789191</v>
+      </c>
+      <c r="I135">
+        <v>0.03012426302302629</v>
+      </c>
+      <c r="J135">
+        <v>0.09737594809848815</v>
+      </c>
+      <c r="K135">
+        <v>0.02170355687849224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136">
+        <v>31785</v>
+      </c>
+      <c r="E136">
+        <v>6.034283619141206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>2036</v>
+      </c>
+      <c r="D137">
+        <v>0.002436961862258613</v>
+      </c>
+      <c r="E137">
+        <v>0.9514371070545167</v>
+      </c>
+      <c r="F137">
+        <v>2036</v>
+      </c>
+      <c r="G137">
+        <v>0.07538805610965937</v>
+      </c>
+      <c r="H137">
+        <v>0.61526671028696</v>
+      </c>
+      <c r="I137">
+        <v>0.03400583367329091</v>
+      </c>
+      <c r="J137">
+        <v>0.1187295025447384</v>
+      </c>
+      <c r="K137">
+        <v>0.02645364415366203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>1327</v>
+      </c>
+      <c r="D138">
+        <v>0.04306424898095429</v>
+      </c>
+      <c r="E138">
+        <v>0.6495734460186213</v>
+      </c>
+      <c r="F138">
+        <v>1327</v>
+      </c>
+      <c r="G138">
+        <v>0.04747460037469864</v>
+      </c>
+      <c r="H138">
+        <v>0.4340362995862961</v>
+      </c>
+      <c r="I138">
+        <v>0.01825728849507868</v>
+      </c>
+      <c r="J138">
+        <v>0.08208775450475514</v>
+      </c>
+      <c r="K138">
+        <v>0.01658421999309212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>4473</v>
+      </c>
+      <c r="D139">
+        <v>0.05052746168803424</v>
+      </c>
+      <c r="E139">
+        <v>2.083063030964695</v>
+      </c>
+      <c r="F139">
+        <v>4473</v>
+      </c>
+      <c r="G139">
+        <v>0.1575037753209472</v>
+      </c>
+      <c r="H139">
+        <v>1.36072247766424</v>
+      </c>
+      <c r="I139">
+        <v>0.02631283039227128</v>
+      </c>
+      <c r="J139">
+        <v>0.3105046183336526</v>
+      </c>
+      <c r="K139">
+        <v>0.05606104037724435</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>2036</v>
+      </c>
+      <c r="D140">
+        <v>0.00342646730132401</v>
+      </c>
+      <c r="E140">
+        <v>0.9307582769542933</v>
+      </c>
+      <c r="F140">
+        <v>2036</v>
+      </c>
+      <c r="G140">
+        <v>0.07375712529756129</v>
+      </c>
+      <c r="H140">
+        <v>0.6006177547387779</v>
+      </c>
+      <c r="I140">
+        <v>0.03627462801523507</v>
+      </c>
+      <c r="J140">
+        <v>0.1144062810344622</v>
+      </c>
+      <c r="K140">
+        <v>0.02589799580164254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141">
+        <v>31785</v>
+      </c>
+      <c r="E141">
+        <v>5.987377481884323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>2045</v>
+      </c>
+      <c r="D142">
+        <v>0.00222385476808995</v>
+      </c>
+      <c r="E142">
+        <v>0.9103921309579164</v>
+      </c>
+      <c r="F142">
+        <v>2045</v>
+      </c>
+      <c r="G142">
+        <v>0.07121638942044228</v>
+      </c>
+      <c r="H142">
+        <v>0.5848033463116735</v>
+      </c>
+      <c r="I142">
+        <v>0.03423486254177988</v>
+      </c>
+      <c r="J142">
+        <v>0.1167259782087058</v>
+      </c>
+      <c r="K142">
+        <v>0.02540667564608157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>1150</v>
+      </c>
+      <c r="D143">
+        <v>0.03987704205792397</v>
+      </c>
+      <c r="E143">
+        <v>0.5784306610003114</v>
+      </c>
+      <c r="F143">
+        <v>1150</v>
+      </c>
+      <c r="G143">
+        <v>0.04159354825969785</v>
+      </c>
+      <c r="H143">
+        <v>0.3836808989290148</v>
+      </c>
+      <c r="I143">
+        <v>0.01424809591844678</v>
+      </c>
+      <c r="J143">
+        <v>0.08010050025768578</v>
+      </c>
+      <c r="K143">
+        <v>0.01433620892930776</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>4158</v>
+      </c>
+      <c r="D144">
+        <v>0.05501956585794687</v>
+      </c>
+      <c r="E144">
+        <v>1.938500731950626</v>
+      </c>
+      <c r="F144">
+        <v>4158</v>
+      </c>
+      <c r="G144">
+        <v>0.1468605682021007</v>
+      </c>
+      <c r="H144">
+        <v>1.257960731280036</v>
+      </c>
+      <c r="I144">
+        <v>0.02589983050711453</v>
+      </c>
+      <c r="J144">
+        <v>0.2965021878480911</v>
+      </c>
+      <c r="K144">
+        <v>0.05225385911762714</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>2045</v>
+      </c>
+      <c r="D145">
+        <v>0.003497787634842098</v>
+      </c>
+      <c r="E145">
+        <v>0.9405012910719961</v>
+      </c>
+      <c r="F145">
+        <v>2045</v>
+      </c>
+      <c r="G145">
+        <v>0.07380726956762373</v>
+      </c>
+      <c r="H145">
+        <v>0.6011397549882531</v>
+      </c>
+      <c r="I145">
+        <v>0.03880311385728419</v>
+      </c>
+      <c r="J145">
+        <v>0.1197014036588371</v>
+      </c>
+      <c r="K145">
+        <v>0.02629391092341393</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146">
+        <v>31785</v>
+      </c>
+      <c r="E146">
+        <v>6.068436335888691</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1885</v>
+      </c>
+      <c r="D147">
+        <v>0.002044411841779947</v>
+      </c>
+      <c r="E147">
+        <v>0.8406794969923794</v>
+      </c>
+      <c r="F147">
+        <v>1885</v>
+      </c>
+      <c r="G147">
+        <v>0.06683886260725558</v>
+      </c>
+      <c r="H147">
+        <v>0.5423476151190698</v>
+      </c>
+      <c r="I147">
+        <v>0.02954253100324422</v>
+      </c>
+      <c r="J147">
+        <v>0.1053581130690873</v>
+      </c>
+      <c r="K147">
+        <v>0.02353194588795304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>690</v>
+      </c>
+      <c r="D148">
+        <v>0.02774207759648561</v>
+      </c>
+      <c r="E148">
+        <v>0.3473858019569889</v>
+      </c>
+      <c r="F148">
+        <v>690</v>
+      </c>
+      <c r="G148">
+        <v>0.02370626991614699</v>
+      </c>
+      <c r="H148">
+        <v>0.2294130813097581</v>
+      </c>
+      <c r="I148">
+        <v>0.00975093012675643</v>
+      </c>
+      <c r="J148">
+        <v>0.05069662153255194</v>
+      </c>
+      <c r="K148">
+        <v>0.008368636132217944</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>782</v>
+      </c>
+      <c r="D149">
+        <v>0.03005365724675357</v>
+      </c>
+      <c r="E149">
+        <v>0.3930395380593836</v>
+      </c>
+      <c r="F149">
+        <v>782</v>
+      </c>
+      <c r="G149">
+        <v>0.02763045975007117</v>
+      </c>
+      <c r="H149">
+        <v>0.2579704757081345</v>
+      </c>
+      <c r="I149">
+        <v>0.01071690104436129</v>
+      </c>
+      <c r="J149">
+        <v>0.05837934487499297</v>
+      </c>
+      <c r="K149">
+        <v>0.009437059983611107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>1885</v>
+      </c>
+      <c r="D150">
+        <v>0.003333576722070575</v>
+      </c>
+      <c r="E150">
+        <v>0.9422860159538686</v>
+      </c>
+      <c r="F150">
+        <v>1885</v>
+      </c>
+      <c r="G150">
+        <v>0.07170948502607644</v>
+      </c>
+      <c r="H150">
+        <v>0.6229702138807625</v>
+      </c>
+      <c r="I150">
+        <v>0.03291102149523795</v>
+      </c>
+      <c r="J150">
+        <v>0.1114387997658923</v>
+      </c>
+      <c r="K150">
+        <v>0.02536915417294949</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151">
+        <v>31785</v>
+      </c>
+      <c r="E151">
+        <v>6.088828714680858</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>2261</v>
+      </c>
+      <c r="D152">
+        <v>0.002504425356164575</v>
+      </c>
+      <c r="E152">
+        <v>0.999630791018717</v>
+      </c>
+      <c r="F152">
+        <v>2261</v>
+      </c>
+      <c r="G152">
+        <v>0.07871217012871057</v>
+      </c>
+      <c r="H152">
+        <v>0.6430851053446531</v>
+      </c>
+      <c r="I152">
+        <v>0.03765166888479143</v>
+      </c>
+      <c r="J152">
+        <v>0.1265377283561975</v>
+      </c>
+      <c r="K152">
+        <v>0.02785410301294178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>1094</v>
+      </c>
+      <c r="D153">
+        <v>0.03461876115761697</v>
+      </c>
+      <c r="E153">
+        <v>0.5437515390804037</v>
+      </c>
+      <c r="F153">
+        <v>1094</v>
+      </c>
+      <c r="G153">
+        <v>0.03883548500016332</v>
+      </c>
+      <c r="H153">
+        <v>0.3572650887072086</v>
+      </c>
+      <c r="I153">
+        <v>0.0138281729305163</v>
+      </c>
+      <c r="J153">
+        <v>0.07910190033726394</v>
+      </c>
+      <c r="K153">
+        <v>0.01340710232034326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>4352</v>
+      </c>
+      <c r="D154">
+        <v>0.04682198911905289</v>
+      </c>
+      <c r="E154">
+        <v>2.038651879993267</v>
+      </c>
+      <c r="F154">
+        <v>4352</v>
+      </c>
+      <c r="G154">
+        <v>0.158028221456334</v>
+      </c>
+      <c r="H154">
+        <v>1.333497233106755</v>
+      </c>
+      <c r="I154">
+        <v>0.02126414352096617</v>
+      </c>
+      <c r="J154">
+        <v>0.3018382280133665</v>
+      </c>
+      <c r="K154">
+        <v>0.05536792310886085</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>2261</v>
+      </c>
+      <c r="D155">
+        <v>0.00373105937615037</v>
+      </c>
+      <c r="E155">
+        <v>1.006015831022523</v>
+      </c>
+      <c r="F155">
+        <v>2261</v>
+      </c>
+      <c r="G155">
+        <v>0.07864002487622201</v>
+      </c>
+      <c r="H155">
+        <v>0.6473526661284268</v>
+      </c>
+      <c r="I155">
+        <v>0.04085938166826963</v>
+      </c>
+      <c r="J155">
+        <v>0.1255762556102127</v>
+      </c>
+      <c r="K155">
+        <v>0.02791037689894438</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C156">
+        <v>31785</v>
+      </c>
+      <c r="E156">
+        <v>6.344122061156668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1639</v>
+      </c>
+      <c r="D157">
+        <v>0.00176610704511404</v>
+      </c>
+      <c r="E157">
+        <v>0.7181976300198585</v>
+      </c>
+      <c r="F157">
+        <v>1639</v>
+      </c>
+      <c r="G157">
+        <v>0.0565227575134486</v>
+      </c>
+      <c r="H157">
+        <v>0.4580104585038498</v>
+      </c>
+      <c r="I157">
+        <v>0.03055967239197344</v>
+      </c>
+      <c r="J157">
+        <v>0.09195434313733131</v>
+      </c>
+      <c r="K157">
+        <v>0.01983206754084677</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>608</v>
+      </c>
+      <c r="D158">
+        <v>0.02521957154385746</v>
+      </c>
+      <c r="E158">
+        <v>0.317667540977709</v>
+      </c>
+      <c r="F158">
+        <v>608</v>
+      </c>
+      <c r="G158">
+        <v>0.02165071712806821</v>
+      </c>
+      <c r="H158">
+        <v>0.2073263596976176</v>
+      </c>
+      <c r="I158">
+        <v>0.008840414579026401</v>
+      </c>
+      <c r="J158">
+        <v>0.04958641901612282</v>
+      </c>
+      <c r="K158">
+        <v>0.00743931601755321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>719</v>
+      </c>
+      <c r="D159">
+        <v>0.02854145655874163</v>
+      </c>
+      <c r="E159">
+        <v>0.3728777020005509</v>
+      </c>
+      <c r="F159">
+        <v>719</v>
+      </c>
+      <c r="G159">
+        <v>0.02582720632199198</v>
+      </c>
+      <c r="H159">
+        <v>0.24020041374024</v>
+      </c>
+      <c r="I159">
+        <v>0.0101264287950471</v>
+      </c>
+      <c r="J159">
+        <v>0.06104432709980756</v>
+      </c>
+      <c r="K159">
+        <v>0.008763826335780323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>1639</v>
+      </c>
+      <c r="D160">
+        <v>0.002647266839630902</v>
+      </c>
+      <c r="E160">
+        <v>0.7344025039346889</v>
+      </c>
+      <c r="F160">
+        <v>1639</v>
+      </c>
+      <c r="G160">
+        <v>0.05689831078052521</v>
+      </c>
+      <c r="H160">
+        <v>0.4678394163493067</v>
+      </c>
+      <c r="I160">
+        <v>0.0338597985683009</v>
+      </c>
+      <c r="J160">
+        <v>0.09355600015260279</v>
+      </c>
+      <c r="K160">
+        <v>0.02023452601861209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161">
+        <v>31785</v>
+      </c>
+      <c r="E161">
+        <v>6.016263666911982</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>2226</v>
+      </c>
+      <c r="D162">
+        <v>0.002491327584721148</v>
+      </c>
+      <c r="E162">
+        <v>1.045509154093452</v>
+      </c>
+      <c r="F162">
+        <v>2226</v>
+      </c>
+      <c r="G162">
+        <v>0.080370276235044</v>
+      </c>
+      <c r="H162">
+        <v>0.6509876614436507</v>
+      </c>
+      <c r="I162">
+        <v>0.03959796531125903</v>
+      </c>
+      <c r="J162">
+        <v>0.1587746522855014</v>
+      </c>
+      <c r="K162">
+        <v>0.02846444002352655</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>2346</v>
+      </c>
+      <c r="D163">
+        <v>0.05944306391756982</v>
+      </c>
+      <c r="E163">
+        <v>1.115988289937377</v>
+      </c>
+      <c r="F163">
+        <v>2346</v>
+      </c>
+      <c r="G163">
+        <v>0.08210825186688453</v>
+      </c>
+      <c r="H163">
+        <v>0.7397727376082912</v>
+      </c>
+      <c r="I163">
+        <v>0.03228591685183346</v>
+      </c>
+      <c r="J163">
+        <v>0.1442356896586716</v>
+      </c>
+      <c r="K163">
+        <v>0.02882194716949016</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>3817</v>
+      </c>
+      <c r="D164">
+        <v>0.06987384741660208</v>
+      </c>
+      <c r="E164">
+        <v>1.90468195208814</v>
+      </c>
+      <c r="F164">
+        <v>3817</v>
+      </c>
+      <c r="G164">
+        <v>0.1404894659062847</v>
+      </c>
+      <c r="H164">
+        <v>1.239188181934878</v>
+      </c>
+      <c r="I164">
+        <v>0.03607742302119732</v>
+      </c>
+      <c r="J164">
+        <v>0.2864307966083288</v>
+      </c>
+      <c r="K164">
+        <v>0.04973623063415289</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>2226</v>
+      </c>
+      <c r="D165">
+        <v>0.003706071060150862</v>
+      </c>
+      <c r="E165">
+        <v>1.006709239096381</v>
+      </c>
+      <c r="F165">
+        <v>2226</v>
+      </c>
+      <c r="G165">
+        <v>0.07899845810607076</v>
+      </c>
+      <c r="H165">
+        <v>0.6447389516979456</v>
+      </c>
+      <c r="I165">
+        <v>0.04280908859800547</v>
+      </c>
+      <c r="J165">
+        <v>0.1253309564199299</v>
+      </c>
+      <c r="K165">
+        <v>0.02798191772308201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166">
+        <v>31785</v>
+      </c>
+      <c r="E166">
+        <v>6.029831399093382</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1728</v>
+      </c>
+      <c r="D167">
+        <v>0.001980093657039106</v>
+      </c>
+      <c r="E167">
+        <v>0.7747454580385238</v>
+      </c>
+      <c r="F167">
+        <v>1728</v>
+      </c>
+      <c r="G167">
+        <v>0.06096459762193263</v>
+      </c>
+      <c r="H167">
+        <v>0.4966654960298911</v>
+      </c>
+      <c r="I167">
+        <v>0.03116393811069429</v>
+      </c>
+      <c r="J167">
+        <v>0.09825482440646738</v>
+      </c>
+      <c r="K167">
+        <v>0.02113206009380519</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>826</v>
+      </c>
+      <c r="D168">
+        <v>0.03030527115333825</v>
+      </c>
+      <c r="E168">
+        <v>0.4216055240249261</v>
+      </c>
+      <c r="F168">
+        <v>826</v>
+      </c>
+      <c r="G168">
+        <v>0.02937675477005541</v>
+      </c>
+      <c r="H168">
+        <v>0.2729384496342391</v>
+      </c>
+      <c r="I168">
+        <v>0.01273914868943393</v>
+      </c>
+      <c r="J168">
+        <v>0.06415226415265352</v>
+      </c>
+      <c r="K168">
+        <v>0.01027056656312197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>4351</v>
+      </c>
+      <c r="D169">
+        <v>0.04742217378225178</v>
+      </c>
+      <c r="E169">
+        <v>2.060499464976601</v>
+      </c>
+      <c r="F169">
+        <v>4351</v>
+      </c>
+      <c r="G169">
+        <v>0.1595231689279899</v>
+      </c>
+      <c r="H169">
+        <v>1.34091035684105</v>
+      </c>
+      <c r="I169">
+        <v>0.02553975919727236</v>
+      </c>
+      <c r="J169">
+        <v>0.3063784624682739</v>
+      </c>
+      <c r="K169">
+        <v>0.05553711822722107</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>1728</v>
+      </c>
+      <c r="D170">
+        <v>0.00296150310896337</v>
+      </c>
+      <c r="E170">
+        <v>0.7978135560406372</v>
+      </c>
+      <c r="F170">
+        <v>1728</v>
+      </c>
+      <c r="G170">
+        <v>0.0622395888203755</v>
+      </c>
+      <c r="H170">
+        <v>0.5101570897968486</v>
+      </c>
+      <c r="I170">
+        <v>0.03531287948135287</v>
+      </c>
+      <c r="J170">
+        <v>0.1005496513098478</v>
+      </c>
+      <c r="K170">
+        <v>0.02192763134371489</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C171">
+        <v>31785</v>
+      </c>
+      <c r="E171">
+        <v>6.27593719214201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>2130</v>
+      </c>
+      <c r="D172">
+        <v>0.00235625565983355</v>
+      </c>
+      <c r="E172">
+        <v>0.9445376179646701</v>
+      </c>
+      <c r="F172">
+        <v>2130</v>
+      </c>
+      <c r="G172">
+        <v>0.07607644016388804</v>
+      </c>
+      <c r="H172">
+        <v>0.6128013960551471</v>
+      </c>
+      <c r="I172">
+        <v>0.03064582287333906</v>
+      </c>
+      <c r="J172">
+        <v>0.1160762956133112</v>
+      </c>
+      <c r="K172">
+        <v>0.0262043341062963</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>1250</v>
+      </c>
+      <c r="D173">
+        <v>0.03577028692234308</v>
+      </c>
+      <c r="E173">
+        <v>0.6005069920793176</v>
+      </c>
+      <c r="F173">
+        <v>1250</v>
+      </c>
+      <c r="G173">
+        <v>0.04434337478596717</v>
+      </c>
+      <c r="H173">
+        <v>0.4028500951826572</v>
+      </c>
+      <c r="I173">
+        <v>0.01431742240674794</v>
+      </c>
+      <c r="J173">
+        <v>0.07596534909680486</v>
+      </c>
+      <c r="K173">
+        <v>0.01523424324113876</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>4112</v>
+      </c>
+      <c r="D174">
+        <v>0.04581905261147767</v>
+      </c>
+      <c r="E174">
+        <v>1.972800875897519</v>
+      </c>
+      <c r="F174">
+        <v>4112</v>
+      </c>
+      <c r="G174">
+        <v>0.1514665590366349</v>
+      </c>
+      <c r="H174">
+        <v>1.271870898082852</v>
+      </c>
+      <c r="I174">
+        <v>0.02142383903264999</v>
+      </c>
+      <c r="J174">
+        <v>0.310899312258698</v>
+      </c>
+      <c r="K174">
+        <v>0.05295858031604439</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>2130</v>
+      </c>
+      <c r="D175">
+        <v>0.003554844413883984</v>
+      </c>
+      <c r="E175">
+        <v>0.9518508239416406</v>
+      </c>
+      <c r="F175">
+        <v>2130</v>
+      </c>
+      <c r="G175">
+        <v>0.07629714894574136</v>
+      </c>
+      <c r="H175">
+        <v>0.6169094579527155</v>
+      </c>
+      <c r="I175">
+        <v>0.03344351891428232</v>
+      </c>
+      <c r="J175">
+        <v>0.116475639748387</v>
+      </c>
+      <c r="K175">
+        <v>0.02643202908802778</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C176">
+        <v>31785</v>
+      </c>
+      <c r="E176">
+        <v>6.021218053414486</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>2379</v>
+      </c>
+      <c r="D177">
+        <v>0.002685146406292915</v>
+      </c>
+      <c r="E177">
+        <v>1.058601055992767</v>
+      </c>
+      <c r="F177">
+        <v>2379</v>
+      </c>
+      <c r="G177">
+        <v>0.08531010686419904</v>
+      </c>
+      <c r="H177">
+        <v>0.6843382590450346</v>
+      </c>
+      <c r="I177">
+        <v>0.03656201914418489</v>
+      </c>
+      <c r="J177">
+        <v>0.1309983893297613</v>
+      </c>
+      <c r="K177">
+        <v>0.02956597215961665</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>2791</v>
+      </c>
+      <c r="D178">
+        <v>0.08977431803941727</v>
+      </c>
+      <c r="E178">
+        <v>1.359209586982615</v>
+      </c>
+      <c r="F178">
+        <v>2791</v>
+      </c>
+      <c r="G178">
+        <v>0.1013601048616692</v>
+      </c>
+      <c r="H178">
+        <v>0.9153017835924402</v>
+      </c>
+      <c r="I178">
+        <v>0.04336567618884146</v>
+      </c>
+      <c r="J178">
+        <v>0.1571914497762918</v>
+      </c>
+      <c r="K178">
+        <v>0.03433921898249537</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>3895</v>
+      </c>
+      <c r="D179">
+        <v>0.0672066294355318</v>
+      </c>
+      <c r="E179">
+        <v>1.82713240198791</v>
+      </c>
+      <c r="F179">
+        <v>3895</v>
+      </c>
+      <c r="G179">
+        <v>0.139037714805454</v>
+      </c>
+      <c r="H179">
+        <v>1.199008972966112</v>
+      </c>
+      <c r="I179">
+        <v>0.03182411403395236</v>
+      </c>
+      <c r="J179">
+        <v>0.2584620071575046</v>
+      </c>
+      <c r="K179">
+        <v>0.04832364118192345</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>2379</v>
+      </c>
+      <c r="D180">
+        <v>0.003964405972510576</v>
+      </c>
+      <c r="E180">
+        <v>1.046357446000911</v>
+      </c>
+      <c r="F180">
+        <v>2379</v>
+      </c>
+      <c r="G180">
+        <v>0.08403058082330972</v>
+      </c>
+      <c r="H180">
+        <v>0.6717304636258632</v>
+      </c>
+      <c r="I180">
+        <v>0.03883703635074198</v>
+      </c>
+      <c r="J180">
+        <v>0.1307458145311102</v>
+      </c>
+      <c r="K180">
+        <v>0.02973385318182409</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C181">
+        <v>31785</v>
+      </c>
+      <c r="E181">
+        <v>6.100780659820884</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1522</v>
+      </c>
+      <c r="D182">
+        <v>0.001713815261609852</v>
+      </c>
+      <c r="E182">
+        <v>0.6792443220037967</v>
+      </c>
+      <c r="F182">
+        <v>1522</v>
+      </c>
+      <c r="G182">
+        <v>0.05359197407960892</v>
+      </c>
+      <c r="H182">
+        <v>0.4285642218310386</v>
+      </c>
+      <c r="I182">
+        <v>0.02860630466602743</v>
+      </c>
+      <c r="J182">
+        <v>0.09074335137847811</v>
+      </c>
+      <c r="K182">
+        <v>0.01903955859597772</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>1231</v>
+      </c>
+      <c r="D183">
+        <v>0.02839991787914187</v>
+      </c>
+      <c r="E183">
+        <v>0.5980422369902954</v>
+      </c>
+      <c r="F183">
+        <v>1231</v>
+      </c>
+      <c r="G183">
+        <v>0.0438920435262844</v>
+      </c>
+      <c r="H183">
+        <v>0.3868063867557794</v>
+      </c>
+      <c r="I183">
+        <v>0.01339370489586145</v>
+      </c>
+      <c r="J183">
+        <v>0.09028107626363635</v>
+      </c>
+      <c r="K183">
+        <v>0.0157300092978403</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>2537</v>
+      </c>
+      <c r="D184">
+        <v>0.03789658343885094</v>
+      </c>
+      <c r="E184">
+        <v>1.182292280020192</v>
+      </c>
+      <c r="F184">
+        <v>2537</v>
+      </c>
+      <c r="G184">
+        <v>0.08926582022104412</v>
+      </c>
+      <c r="H184">
+        <v>0.7610181405907497</v>
+      </c>
+      <c r="I184">
+        <v>0.0183054362423718</v>
+      </c>
+      <c r="J184">
+        <v>0.1833940382348374</v>
+      </c>
+      <c r="K184">
+        <v>0.03223532752599567</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>1522</v>
+      </c>
+      <c r="D185">
+        <v>0.002700202167034149</v>
+      </c>
+      <c r="E185">
+        <v>0.7218112340196967</v>
+      </c>
+      <c r="F185">
+        <v>1522</v>
+      </c>
+      <c r="G185">
+        <v>0.05653865193016827</v>
+      </c>
+      <c r="H185">
+        <v>0.4530522035202011</v>
+      </c>
+      <c r="I185">
+        <v>0.03343027923256159</v>
+      </c>
+      <c r="J185">
+        <v>0.0962992962449789</v>
+      </c>
+      <c r="K185">
+        <v>0.02029144729021937</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C186">
+        <v>31785</v>
+      </c>
+      <c r="E186">
+        <v>5.988838342251256</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>1339</v>
+      </c>
+      <c r="D187">
+        <v>0.001504786894656718</v>
+      </c>
+      <c r="E187">
+        <v>0.5990550969727337</v>
+      </c>
+      <c r="F187">
+        <v>1339</v>
+      </c>
+      <c r="G187">
+        <v>0.04732383799273521</v>
+      </c>
+      <c r="H187">
+        <v>0.3800588122103363</v>
+      </c>
+      <c r="I187">
+        <v>0.02579006168525666</v>
+      </c>
+      <c r="J187">
+        <v>0.07788894244004041</v>
+      </c>
+      <c r="K187">
+        <v>0.01672168669756502</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>591</v>
+      </c>
+      <c r="D188">
+        <v>0.02559739269781858</v>
+      </c>
+      <c r="E188">
+        <v>0.3071493060560897</v>
+      </c>
+      <c r="F188">
+        <v>591</v>
+      </c>
+      <c r="G188">
+        <v>0.02111741004046053</v>
+      </c>
+      <c r="H188">
+        <v>0.1990007900167257</v>
+      </c>
+      <c r="I188">
+        <v>0.009029964334331453</v>
+      </c>
+      <c r="J188">
+        <v>0.04853254556655884</v>
+      </c>
+      <c r="K188">
+        <v>0.0072507846634835</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>754</v>
+      </c>
+      <c r="D189">
+        <v>0.03141219704411924</v>
+      </c>
+      <c r="E189">
+        <v>0.4072140399366617</v>
+      </c>
+      <c r="F189">
+        <v>754</v>
+      </c>
+      <c r="G189">
+        <v>0.02750483318232</v>
+      </c>
+      <c r="H189">
+        <v>0.2573507747147232</v>
+      </c>
+      <c r="I189">
+        <v>0.01186492224223912</v>
+      </c>
+      <c r="J189">
+        <v>0.07158660038840026</v>
+      </c>
+      <c r="K189">
+        <v>0.009669618215411901</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>1339</v>
+      </c>
+      <c r="D190">
+        <v>0.002240916946902871</v>
+      </c>
+      <c r="E190">
+        <v>0.5943615629803389</v>
+      </c>
+      <c r="F190">
+        <v>1339</v>
+      </c>
+      <c r="G190">
+        <v>0.04670545330736786</v>
+      </c>
+      <c r="H190">
+        <v>0.3754347389331087</v>
+      </c>
+      <c r="I190">
+        <v>0.02822479081805795</v>
+      </c>
+      <c r="J190">
+        <v>0.07668513595126569</v>
+      </c>
+      <c r="K190">
+        <v>0.0166467345552519</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C191">
+        <v>31785</v>
+      </c>
+      <c r="E191">
+        <v>6.456112689804286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>2009</v>
+      </c>
+      <c r="D192">
+        <v>0.00223701202776283</v>
+      </c>
+      <c r="E192">
+        <v>0.890111853950657</v>
+      </c>
+      <c r="F192">
+        <v>2009</v>
+      </c>
+      <c r="G192">
+        <v>0.07125346024986356</v>
+      </c>
+      <c r="H192">
+        <v>0.5714480890892446</v>
+      </c>
+      <c r="I192">
+        <v>0.03286880941595882</v>
+      </c>
+      <c r="J192">
+        <v>0.1122901741182432</v>
+      </c>
+      <c r="K192">
+        <v>0.02501368790399283</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>1161</v>
+      </c>
+      <c r="D193">
+        <v>0.06588725093752146</v>
+      </c>
+      <c r="E193">
+        <v>0.590113487909548</v>
+      </c>
+      <c r="F193">
+        <v>1161</v>
+      </c>
+      <c r="G193">
+        <v>0.04127792781218886</v>
+      </c>
+      <c r="H193">
+        <v>0.4031047982862219</v>
+      </c>
+      <c r="I193">
+        <v>0.01360721001401544</v>
+      </c>
+      <c r="J193">
+        <v>0.07379436190240085</v>
+      </c>
+      <c r="K193">
+        <v>0.014246657025069</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>3484</v>
+      </c>
+      <c r="D194">
+        <v>0.04985964810475707</v>
+      </c>
+      <c r="E194">
+        <v>1.633037738036364</v>
+      </c>
+      <c r="F194">
+        <v>3484</v>
+      </c>
+      <c r="G194">
+        <v>0.1247977914754301</v>
+      </c>
+      <c r="H194">
+        <v>1.059620248386636</v>
+      </c>
+      <c r="I194">
+        <v>0.02321479807142168</v>
+      </c>
+      <c r="J194">
+        <v>0.2434607354225591</v>
+      </c>
+      <c r="K194">
+        <v>0.04491089994553477</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>2009</v>
+      </c>
+      <c r="D195">
+        <v>0.003416302730329335</v>
+      </c>
+      <c r="E195">
+        <v>0.8953921020729467</v>
+      </c>
+      <c r="F195">
+        <v>2009</v>
+      </c>
+      <c r="G195">
+        <v>0.07117600319907069</v>
+      </c>
+      <c r="H195">
+        <v>0.5734148147748783</v>
+      </c>
+      <c r="I195">
+        <v>0.03631111339200288</v>
+      </c>
+      <c r="J195">
+        <v>0.1116296887630597</v>
+      </c>
+      <c r="K195">
+        <v>0.02518658060580492</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C196">
+        <v>31785</v>
+      </c>
+      <c r="E196">
+        <v>6.437115517561324</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>2170</v>
+      </c>
+      <c r="D197">
+        <v>0.002504048519767821</v>
+      </c>
+      <c r="E197">
+        <v>0.9683652400271967</v>
+      </c>
+      <c r="F197">
+        <v>2170</v>
+      </c>
+      <c r="G197">
+        <v>0.07636160869151354</v>
+      </c>
+      <c r="H197">
+        <v>0.6208619348471984</v>
+      </c>
+      <c r="I197">
+        <v>0.03843553923070431</v>
+      </c>
+      <c r="J197">
+        <v>0.1227263492764905</v>
+      </c>
+      <c r="K197">
+        <v>0.02702863758895546</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>1582</v>
+      </c>
+      <c r="D198">
+        <v>0.05473299184814095</v>
+      </c>
+      <c r="E198">
+        <v>0.7758945809910074</v>
+      </c>
+      <c r="F198">
+        <v>1582</v>
+      </c>
+      <c r="G198">
+        <v>0.0552791787777096</v>
+      </c>
+      <c r="H198">
+        <v>0.5162677182815969</v>
+      </c>
+      <c r="I198">
+        <v>0.02509353368077427</v>
+      </c>
+      <c r="J198">
+        <v>0.101573753519915</v>
+      </c>
+      <c r="K198">
+        <v>0.01901165151502937</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>3924</v>
+      </c>
+      <c r="D199">
+        <v>0.05960172577761114</v>
+      </c>
+      <c r="E199">
+        <v>1.852503819973208</v>
+      </c>
+      <c r="F199">
+        <v>3924</v>
+      </c>
+      <c r="G199">
+        <v>0.1382787165930495</v>
+      </c>
+      <c r="H199">
+        <v>1.183126879157498</v>
+      </c>
+      <c r="I199">
+        <v>0.02844419667962939</v>
+      </c>
+      <c r="J199">
+        <v>0.3059010070282966</v>
+      </c>
+      <c r="K199">
+        <v>0.04856240225490183</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>2170</v>
+      </c>
+      <c r="D200">
+        <v>0.003639121423475444</v>
+      </c>
+      <c r="E200">
+        <v>0.9840314489556476</v>
+      </c>
+      <c r="F200">
+        <v>2170</v>
+      </c>
+      <c r="G200">
+        <v>0.07721356942784041</v>
+      </c>
+      <c r="H200">
+        <v>0.6282631752546877</v>
+      </c>
+      <c r="I200">
+        <v>0.04191196581814438</v>
+      </c>
+      <c r="J200">
+        <v>0.1261636955896392</v>
+      </c>
+      <c r="K200">
+        <v>0.02711039618588984</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C201">
+        <v>31785</v>
+      </c>
+      <c r="E201">
+        <v>7.183367070858367</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>2044</v>
+      </c>
+      <c r="D202">
+        <v>0.002269561402499676</v>
+      </c>
+      <c r="E202">
+        <v>0.888083089957945</v>
+      </c>
+      <c r="F202">
+        <v>2044</v>
+      </c>
+      <c r="G202">
+        <v>0.07029930944554508</v>
+      </c>
+      <c r="H202">
+        <v>0.5682329683331773</v>
+      </c>
+      <c r="I202">
+        <v>0.03712840797379613</v>
+      </c>
+      <c r="J202">
+        <v>0.1119552145246416</v>
+      </c>
+      <c r="K202">
+        <v>0.02475642517674714</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>1103</v>
+      </c>
+      <c r="D203">
+        <v>0.04208723828196526</v>
+      </c>
+      <c r="E203">
+        <v>0.5558161729713902</v>
+      </c>
+      <c r="F203">
+        <v>1103</v>
+      </c>
+      <c r="G203">
+        <v>0.03918134130071849</v>
+      </c>
+      <c r="H203">
+        <v>0.3649814585223794</v>
+      </c>
+      <c r="I203">
+        <v>0.01811291242484003</v>
+      </c>
+      <c r="J203">
+        <v>0.07898921612650156</v>
+      </c>
+      <c r="K203">
+        <v>0.01335824956186116</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>3131</v>
+      </c>
+      <c r="D204">
+        <v>0.05651319294702262</v>
+      </c>
+      <c r="E204">
+        <v>1.495622667949647</v>
+      </c>
+      <c r="F204">
+        <v>3131</v>
+      </c>
+      <c r="G204">
+        <v>0.1120912856422365</v>
+      </c>
+      <c r="H204">
+        <v>0.9633913895813748</v>
+      </c>
+      <c r="I204">
+        <v>0.029044323367998</v>
+      </c>
+      <c r="J204">
+        <v>0.2325175147270784</v>
+      </c>
+      <c r="K204">
+        <v>0.03921079204883426</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>2044</v>
+      </c>
+      <c r="D205">
+        <v>0.003341444535180926</v>
+      </c>
+      <c r="E205">
+        <v>0.9075512730050832</v>
+      </c>
+      <c r="F205">
+        <v>2044</v>
+      </c>
+      <c r="G205">
+        <v>0.07128310273401439</v>
+      </c>
+      <c r="H205">
+        <v>0.5789673069957644</v>
+      </c>
+      <c r="I205">
+        <v>0.04083994287066162</v>
+      </c>
+      <c r="J205">
+        <v>0.1148965082829818</v>
+      </c>
+      <c r="K205">
+        <v>0.02488013566471636</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206">
+        <v>31785</v>
+      </c>
+      <c r="E206">
+        <v>6.152952409349382</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>2083</v>
+      </c>
+      <c r="D207">
+        <v>0.002305807895027101</v>
+      </c>
+      <c r="E207">
+        <v>0.9233058469835669</v>
+      </c>
+      <c r="F207">
+        <v>2083</v>
+      </c>
+      <c r="G207">
+        <v>0.0731539111584425</v>
+      </c>
+      <c r="H207">
+        <v>0.5909168779617175</v>
+      </c>
+      <c r="I207">
+        <v>0.03621471812948585</v>
+      </c>
+      <c r="J207">
+        <v>0.118674602592364</v>
+      </c>
+      <c r="K207">
+        <v>0.02558069862425327</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>1323</v>
+      </c>
+      <c r="D208">
+        <v>0.042342669214122</v>
+      </c>
+      <c r="E208">
+        <v>0.6444403639761731</v>
+      </c>
+      <c r="F208">
+        <v>1323</v>
+      </c>
+      <c r="G208">
+        <v>0.0464740670286119</v>
+      </c>
+      <c r="H208">
+        <v>0.4254837948828936</v>
+      </c>
+      <c r="I208">
+        <v>0.0176473967730999</v>
+      </c>
+      <c r="J208">
+        <v>0.08903993514832109</v>
+      </c>
+      <c r="K208">
+        <v>0.01613024319522083</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>4620</v>
+      </c>
+      <c r="D209">
+        <v>0.06028739793691784</v>
+      </c>
+      <c r="E209">
+        <v>2.159135099034756</v>
+      </c>
+      <c r="F209">
+        <v>4620</v>
+      </c>
+      <c r="G209">
+        <v>0.1619552843039855</v>
+      </c>
+      <c r="H209">
+        <v>1.411677872529253</v>
+      </c>
+      <c r="I209">
+        <v>0.03104595141485333</v>
+      </c>
+      <c r="J209">
+        <v>0.3238123004557565</v>
+      </c>
+      <c r="K209">
+        <v>0.05710513959638774</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210">
+        <v>2083</v>
+      </c>
+      <c r="D210">
+        <v>0.003131383215077221</v>
+      </c>
+      <c r="E210">
+        <v>0.8635693929390982</v>
+      </c>
+      <c r="F210">
+        <v>2083</v>
+      </c>
+      <c r="G210">
+        <v>0.06791631225496531</v>
+      </c>
+      <c r="H210">
+        <v>0.5518167997943237</v>
+      </c>
+      <c r="I210">
+        <v>0.03660788934212178</v>
+      </c>
+      <c r="J210">
+        <v>0.1094218590296805</v>
+      </c>
+      <c r="K210">
+        <v>0.0239269140874967</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C211">
+        <v>31785</v>
+      </c>
+      <c r="E211">
+        <v>6.211106102331541</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>2254</v>
+      </c>
+      <c r="D212">
+        <v>0.002341803745366633</v>
+      </c>
+      <c r="E212">
+        <v>0.9222065829671919</v>
+      </c>
+      <c r="F212">
+        <v>2254</v>
+      </c>
+      <c r="G212">
+        <v>0.07304381998255849</v>
+      </c>
+      <c r="H212">
+        <v>0.5931813314091414</v>
+      </c>
+      <c r="I212">
+        <v>0.03318134241271764</v>
+      </c>
+      <c r="J212">
+        <v>0.117728135199286</v>
+      </c>
+      <c r="K212">
+        <v>0.02576242526993155</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>1383</v>
+      </c>
+      <c r="D213">
+        <v>0.04727682063821703</v>
+      </c>
+      <c r="E213">
+        <v>0.675370101002045</v>
+      </c>
+      <c r="F213">
+        <v>1383</v>
+      </c>
+      <c r="G213">
+        <v>0.04838767880573869</v>
+      </c>
+      <c r="H213">
+        <v>0.4534960001474246</v>
+      </c>
+      <c r="I213">
+        <v>0.01661458099260926</v>
+      </c>
+      <c r="J213">
+        <v>0.08766252337954938</v>
+      </c>
+      <c r="K213">
+        <v>0.01691850635688752</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>2616</v>
+      </c>
+      <c r="D214">
+        <v>0.05285443470347673</v>
+      </c>
+      <c r="E214">
+        <v>1.247357795014977</v>
+      </c>
+      <c r="F214">
+        <v>2616</v>
+      </c>
+      <c r="G214">
+        <v>0.09296472033020109</v>
+      </c>
+      <c r="H214">
+        <v>0.8122559183975682</v>
+      </c>
+      <c r="I214">
+        <v>0.0210048413136974</v>
+      </c>
+      <c r="J214">
+        <v>0.1868232693523169</v>
+      </c>
+      <c r="K214">
+        <v>0.03281720099039376</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>2254</v>
+      </c>
+      <c r="D215">
+        <v>0.003844970604404807</v>
+      </c>
+      <c r="E215">
+        <v>1.016734878066927</v>
+      </c>
+      <c r="F215">
+        <v>2254</v>
+      </c>
+      <c r="G215">
+        <v>0.07966376782860607</v>
+      </c>
+      <c r="H215">
+        <v>0.6538271165918559</v>
+      </c>
+      <c r="I215">
+        <v>0.04002748220227659</v>
+      </c>
+      <c r="J215">
+        <v>0.1285746874054894</v>
+      </c>
+      <c r="K215">
+        <v>0.02814197330735624</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C216">
+        <v>31785</v>
+      </c>
+      <c r="E216">
+        <v>6.146930888062343</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>1816</v>
+      </c>
+      <c r="D217">
+        <v>0.001963624963536859</v>
+      </c>
+      <c r="E217">
+        <v>0.8043959339847788</v>
+      </c>
+      <c r="F217">
+        <v>1816</v>
+      </c>
+      <c r="G217">
+        <v>0.06333171098958701</v>
+      </c>
+      <c r="H217">
+        <v>0.5180053085787222</v>
+      </c>
+      <c r="I217">
+        <v>0.03099168697372079</v>
+      </c>
+      <c r="J217">
+        <v>0.10095411085058</v>
+      </c>
+      <c r="K217">
+        <v>0.02232349931728095</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>906</v>
+      </c>
+      <c r="D218">
+        <v>0.03634748980402946</v>
+      </c>
+      <c r="E218">
+        <v>0.479694897076115</v>
+      </c>
+      <c r="F218">
+        <v>906</v>
+      </c>
+      <c r="G218">
+        <v>0.03375288227107376</v>
+      </c>
+      <c r="H218">
+        <v>0.3165775435045362</v>
+      </c>
+      <c r="I218">
+        <v>0.01330713636707515</v>
+      </c>
+      <c r="J218">
+        <v>0.06831789051648229</v>
+      </c>
+      <c r="K218">
+        <v>0.01164295221678913</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>3599</v>
+      </c>
+      <c r="D219">
+        <v>0.04739300592336804</v>
+      </c>
+      <c r="E219">
+        <v>1.672247778973542</v>
+      </c>
+      <c r="F219">
+        <v>3599</v>
+      </c>
+      <c r="G219">
+        <v>0.1278804508037865</v>
+      </c>
+      <c r="H219">
+        <v>1.096705371397547</v>
+      </c>
+      <c r="I219">
+        <v>0.0203311312943697</v>
+      </c>
+      <c r="J219">
+        <v>0.2419525581644848</v>
+      </c>
+      <c r="K219">
+        <v>0.04558263684157282</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>1816</v>
+      </c>
+      <c r="D220">
+        <v>0.002981287427246571</v>
+      </c>
+      <c r="E220">
+        <v>0.8163091840688139</v>
+      </c>
+      <c r="F220">
+        <v>1816</v>
+      </c>
+      <c r="G220">
+        <v>0.06381331605371088</v>
+      </c>
+      <c r="H220">
+        <v>0.5241983057931066</v>
+      </c>
+      <c r="I220">
+        <v>0.03450493398122489</v>
+      </c>
+      <c r="J220">
+        <v>0.1014696009224281</v>
+      </c>
+      <c r="K220">
+        <v>0.0227115482557565</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C221">
+        <v>31785</v>
+      </c>
+      <c r="E221">
+        <v>6.166440004715696</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1866</v>
+      </c>
+      <c r="D222">
+        <v>0.002091310569085181</v>
+      </c>
+      <c r="E222">
+        <v>0.8706439340021461</v>
+      </c>
+      <c r="F222">
+        <v>1866</v>
+      </c>
+      <c r="G222">
+        <v>0.06559962616302073</v>
+      </c>
+      <c r="H222">
+        <v>0.5678293730597943</v>
+      </c>
+      <c r="I222">
+        <v>0.03660030895844102</v>
+      </c>
+      <c r="J222">
+        <v>0.1062112908111885</v>
+      </c>
+      <c r="K222">
+        <v>0.02317070635035634</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>1097</v>
+      </c>
+      <c r="D223">
+        <v>0.03946995828300714</v>
+      </c>
+      <c r="E223">
+        <v>0.5520444010617211</v>
+      </c>
+      <c r="F223">
+        <v>1097</v>
+      </c>
+      <c r="G223">
+        <v>0.03887407039292157</v>
+      </c>
+      <c r="H223">
+        <v>0.3621748851146549</v>
+      </c>
+      <c r="I223">
+        <v>0.01594540360383689</v>
+      </c>
+      <c r="J223">
+        <v>0.08013063936959952</v>
+      </c>
+      <c r="K223">
+        <v>0.01340512814931571</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>2767</v>
+      </c>
+      <c r="D224">
+        <v>0.06509778497274965</v>
+      </c>
+      <c r="E224">
+        <v>1.376913827029057</v>
+      </c>
+      <c r="F224">
+        <v>2767</v>
+      </c>
+      <c r="G224">
+        <v>0.09953610075172037</v>
+      </c>
+      <c r="H224">
+        <v>0.8826244114898145</v>
+      </c>
+      <c r="I224">
+        <v>0.03122848295606673</v>
+      </c>
+      <c r="J224">
+        <v>0.2215605505043641</v>
+      </c>
+      <c r="K224">
+        <v>0.03503665060270578</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>1866</v>
+      </c>
+      <c r="D225">
+        <v>0.003089149598963559</v>
+      </c>
+      <c r="E225">
+        <v>0.8469025890808553</v>
+      </c>
+      <c r="F225">
+        <v>1866</v>
+      </c>
+      <c r="G225">
+        <v>0.06590708112344146</v>
+      </c>
+      <c r="H225">
+        <v>0.5374857007991523</v>
+      </c>
+      <c r="I225">
+        <v>0.03955392178613693</v>
+      </c>
+      <c r="J225">
+        <v>0.109160334803164</v>
+      </c>
+      <c r="K225">
+        <v>0.02328669268172234</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C226">
+        <v>31785</v>
+      </c>
+      <c r="E226">
+        <v>6.035315272863954</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1884</v>
+      </c>
+      <c r="D227">
+        <v>0.002075265161693096</v>
+      </c>
+      <c r="E227">
+        <v>0.8333165019284934</v>
+      </c>
+      <c r="F227">
+        <v>1884</v>
+      </c>
+      <c r="G227">
+        <v>0.06531816988717765</v>
+      </c>
+      <c r="H227">
+        <v>0.5350619847886264</v>
+      </c>
+      <c r="I227">
+        <v>0.02989109745249152</v>
+      </c>
+      <c r="J227">
+        <v>0.1087329076835886</v>
+      </c>
+      <c r="K227">
+        <v>0.02316513785626739</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>1501</v>
+      </c>
+      <c r="D228">
+        <v>0.04670453874859959</v>
+      </c>
+      <c r="E228">
+        <v>0.7215729970484972</v>
+      </c>
+      <c r="F228">
+        <v>1501</v>
+      </c>
+      <c r="G228">
+        <v>0.05298865656368434</v>
+      </c>
+      <c r="H228">
+        <v>0.4839971885085106</v>
+      </c>
+      <c r="I228">
+        <v>0.01755554205738008</v>
+      </c>
+      <c r="J228">
+        <v>0.09184719831682742</v>
+      </c>
+      <c r="K228">
+        <v>0.01853745931293815</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>1921</v>
+      </c>
+      <c r="D229">
+        <v>0.048447658540681</v>
+      </c>
+      <c r="E229">
+        <v>0.9188127589877695</v>
+      </c>
+      <c r="F229">
+        <v>1921</v>
+      </c>
+      <c r="G229">
+        <v>0.06820009392686188</v>
+      </c>
+      <c r="H229">
+        <v>0.6024931888096035</v>
+      </c>
+      <c r="I229">
+        <v>0.01919240434654057</v>
+      </c>
+      <c r="J229">
+        <v>0.1311301657697186</v>
+      </c>
+      <c r="K229">
+        <v>0.02404849953018129</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230">
+        <v>1884</v>
+      </c>
+      <c r="D230">
+        <v>0.003031012020073831</v>
+      </c>
+      <c r="E230">
+        <v>0.8170534239616245</v>
+      </c>
+      <c r="F230">
+        <v>1884</v>
+      </c>
+      <c r="G230">
+        <v>0.06444164924323559</v>
+      </c>
+      <c r="H230">
+        <v>0.5206094339955598</v>
+      </c>
+      <c r="I230">
+        <v>0.03194253682158887</v>
+      </c>
+      <c r="J230">
+        <v>0.1065970316994935</v>
+      </c>
+      <c r="K230">
+        <v>0.02305939700454473</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C231">
+        <v>31785</v>
+      </c>
+      <c r="E231">
+        <v>6.017521797912195</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1740</v>
+      </c>
+      <c r="D232">
+        <v>0.001915474305860698</v>
+      </c>
+      <c r="E232">
+        <v>0.7719576469389722</v>
+      </c>
+      <c r="F232">
+        <v>1740</v>
+      </c>
+      <c r="G232">
+        <v>0.06064919230993837</v>
+      </c>
+      <c r="H232">
+        <v>0.4888436301844195</v>
+      </c>
+      <c r="I232">
+        <v>0.03216416435316205</v>
+      </c>
+      <c r="J232">
+        <v>0.1022455461788923</v>
+      </c>
+      <c r="K232">
+        <v>0.02171958622056991</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>1087</v>
+      </c>
+      <c r="D233">
+        <v>0.03835411800537258</v>
+      </c>
+      <c r="E233">
+        <v>0.5803396590054035</v>
+      </c>
+      <c r="F233">
+        <v>1087</v>
+      </c>
+      <c r="G233">
+        <v>0.03937505453359336</v>
+      </c>
+      <c r="H233">
+        <v>0.3603941610781476</v>
+      </c>
+      <c r="I233">
+        <v>0.01641030213795602</v>
+      </c>
+      <c r="J233">
+        <v>0.1079949282575399</v>
+      </c>
+      <c r="K233">
+        <v>0.01386551756877452</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>1361</v>
+      </c>
+      <c r="D234">
+        <v>0.04863578139338642</v>
+      </c>
+      <c r="E234">
+        <v>0.7000496669206768</v>
+      </c>
+      <c r="F234">
+        <v>1361</v>
+      </c>
+      <c r="G234">
+        <v>0.04794370150193572</v>
+      </c>
+      <c r="H234">
+        <v>0.4451295989565551</v>
+      </c>
+      <c r="I234">
+        <v>0.02190523920580745</v>
+      </c>
+      <c r="J234">
+        <v>0.1160620775772259</v>
+      </c>
+      <c r="K234">
+        <v>0.0171029114862904</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>1740</v>
+      </c>
+      <c r="D235">
+        <v>0.00288609613198787</v>
+      </c>
+      <c r="E235">
+        <v>0.7745036650449038</v>
+      </c>
+      <c r="F235">
+        <v>1740</v>
+      </c>
+      <c r="G235">
+        <v>0.06064392032567412</v>
+      </c>
+      <c r="H235">
+        <v>0.4902606280520558</v>
+      </c>
+      <c r="I235">
+        <v>0.03522640920709819</v>
+      </c>
+      <c r="J235">
+        <v>0.1010028934106231</v>
+      </c>
+      <c r="K235">
+        <v>0.02138057991396636</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236">
+        <v>31785</v>
+      </c>
+      <c r="E236">
+        <v>6.114450985915028</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>2230</v>
+      </c>
+      <c r="D237">
+        <v>0.002424415200948715</v>
+      </c>
+      <c r="E237">
+        <v>0.9683586600003764</v>
+      </c>
+      <c r="F237">
+        <v>2230</v>
+      </c>
+      <c r="G237">
+        <v>0.07735379645600915</v>
+      </c>
+      <c r="H237">
+        <v>0.6235276643419638</v>
+      </c>
+      <c r="I237">
+        <v>0.03435940411873162</v>
+      </c>
+      <c r="J237">
+        <v>0.122010812163353</v>
+      </c>
+      <c r="K237">
+        <v>0.02725057769566774</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>1901</v>
+      </c>
+      <c r="D238">
+        <v>0.06028286542277783</v>
+      </c>
+      <c r="E238">
+        <v>0.9180968499276787</v>
+      </c>
+      <c r="F238">
+        <v>1901</v>
+      </c>
+      <c r="G238">
+        <v>0.06827836891170591</v>
+      </c>
+      <c r="H238">
+        <v>0.6128343334421515</v>
+      </c>
+      <c r="I238">
+        <v>0.02576653670985252</v>
+      </c>
+      <c r="J238">
+        <v>0.1154960670974106</v>
+      </c>
+      <c r="K238">
+        <v>0.02341383032035083</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>1921</v>
+      </c>
+      <c r="D239">
+        <v>0.06063464307226241</v>
+      </c>
+      <c r="E239">
+        <v>0.945095021976158</v>
+      </c>
+      <c r="F239">
+        <v>1921</v>
+      </c>
+      <c r="G239">
+        <v>0.06766589020844549</v>
+      </c>
+      <c r="H239">
+        <v>0.6104011074639857</v>
+      </c>
+      <c r="I239">
+        <v>0.02608728874474764</v>
+      </c>
+      <c r="J239">
+        <v>0.1444659127155319</v>
+      </c>
+      <c r="K239">
+        <v>0.02383254724554718</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>2230</v>
+      </c>
+      <c r="D240">
+        <v>0.00337752141058445</v>
+      </c>
+      <c r="E240">
+        <v>0.9054491990245879</v>
+      </c>
+      <c r="F240">
+        <v>2230</v>
+      </c>
+      <c r="G240">
+        <v>0.07173768163193017</v>
+      </c>
+      <c r="H240">
+        <v>0.5817666728980839</v>
+      </c>
+      <c r="I240">
+        <v>0.03405194671358913</v>
+      </c>
+      <c r="J240">
+        <v>0.1136128040961921</v>
+      </c>
+      <c r="K240">
+        <v>0.02566349261905998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C241">
+        <v>31785</v>
+      </c>
+      <c r="E241">
+        <v>6.504133030190133</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>2283</v>
+      </c>
+      <c r="D242">
+        <v>0.002312358934432268</v>
+      </c>
+      <c r="E242">
+        <v>0.9229987679282203</v>
+      </c>
+      <c r="F242">
+        <v>2283</v>
+      </c>
+      <c r="G242">
+        <v>0.07316595048177987</v>
+      </c>
+      <c r="H242">
+        <v>0.5877398906741291</v>
+      </c>
+      <c r="I242">
+        <v>0.0381371375406161</v>
+      </c>
+      <c r="J242">
+        <v>0.1183230304159224</v>
+      </c>
+      <c r="K242">
+        <v>0.02580855635460466</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>2008</v>
+      </c>
+      <c r="D243">
+        <v>0.09485191304702312</v>
+      </c>
+      <c r="E243">
+        <v>0.9488042199518532</v>
+      </c>
+      <c r="F243">
+        <v>2008</v>
+      </c>
+      <c r="G243">
+        <v>0.06572529510594904</v>
+      </c>
+      <c r="H243">
+        <v>0.6374973073834553</v>
+      </c>
+      <c r="I243">
+        <v>0.03537741664331406</v>
+      </c>
+      <c r="J243">
+        <v>0.1168690219055861</v>
+      </c>
+      <c r="K243">
+        <v>0.02280244999565184</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>1833</v>
+      </c>
+      <c r="D244">
+        <v>0.05717484967317432</v>
+      </c>
+      <c r="E244">
+        <v>0.8667862579459324</v>
+      </c>
+      <c r="F244">
+        <v>1833</v>
+      </c>
+      <c r="G244">
+        <v>0.0603986585047096</v>
+      </c>
+      <c r="H244">
+        <v>0.5513978870585561</v>
+      </c>
+      <c r="I244">
+        <v>0.02922571287490427</v>
+      </c>
+      <c r="J244">
+        <v>0.1391740769613534</v>
+      </c>
+      <c r="K244">
+        <v>0.02132974285632372</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>2283</v>
+      </c>
+      <c r="D245">
+        <v>0.003909396007657051</v>
+      </c>
+      <c r="E245">
+        <v>1.073015689966269</v>
+      </c>
+      <c r="F245">
+        <v>2283</v>
+      </c>
+      <c r="G245">
+        <v>0.08249536412768066</v>
+      </c>
+      <c r="H245">
+        <v>0.696339990827255</v>
+      </c>
+      <c r="I245">
+        <v>0.04588722798507661</v>
+      </c>
+      <c r="J245">
+        <v>0.1304656511638314</v>
+      </c>
+      <c r="K245">
+        <v>0.02862690214533359</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C246">
+        <v>31785</v>
+      </c>
+      <c r="E246">
+        <v>6.065073270001449</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1959</v>
+      </c>
+      <c r="D247">
+        <v>0.002110221888870001</v>
+      </c>
+      <c r="E247">
+        <v>0.8644506550626829</v>
+      </c>
+      <c r="F247">
+        <v>1959</v>
+      </c>
+      <c r="G247">
+        <v>0.06812013674061745</v>
+      </c>
+      <c r="H247">
+        <v>0.5556317323353142</v>
+      </c>
+      <c r="I247">
+        <v>0.03238802892155945</v>
+      </c>
+      <c r="J247">
+        <v>0.1098116533830762</v>
+      </c>
+      <c r="K247">
+        <v>0.02391760121099651</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>1218</v>
+      </c>
+      <c r="D248">
+        <v>0.0363607412436977</v>
+      </c>
+      <c r="E248">
+        <v>0.6001835659844801</v>
+      </c>
+      <c r="F248">
+        <v>1218</v>
+      </c>
+      <c r="G248">
+        <v>0.04344276478514075</v>
+      </c>
+      <c r="H248">
+        <v>0.39686236216221</v>
+      </c>
+      <c r="I248">
+        <v>0.01333933277055621</v>
+      </c>
+      <c r="J248">
+        <v>0.08465689769946039</v>
+      </c>
+      <c r="K248">
+        <v>0.01509747339878231</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>2980</v>
+      </c>
+      <c r="D249">
+        <v>0.04835393617395312</v>
+      </c>
+      <c r="E249">
+        <v>1.308193782926537</v>
+      </c>
+      <c r="F249">
+        <v>2980</v>
+      </c>
+      <c r="G249">
+        <v>0.09871135023422539</v>
+      </c>
+      <c r="H249">
+        <v>0.8531241569435224</v>
+      </c>
+      <c r="I249">
+        <v>0.01986837084405124</v>
+      </c>
+      <c r="J249">
+        <v>0.1946701901033521</v>
+      </c>
+      <c r="K249">
+        <v>0.03455416008364409</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>1959</v>
+      </c>
+      <c r="D250">
+        <v>0.003030968247912824</v>
+      </c>
+      <c r="E250">
+        <v>0.8197042379761115</v>
+      </c>
+      <c r="F250">
+        <v>1959</v>
+      </c>
+      <c r="G250">
+        <v>0.06456921773497015</v>
+      </c>
+      <c r="H250">
+        <v>0.5268276918213814</v>
+      </c>
+      <c r="I250">
+        <v>0.03314991167280823</v>
+      </c>
+      <c r="J250">
+        <v>0.1026578466407955</v>
+      </c>
+      <c r="K250">
+        <v>0.02257288014516234</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C251">
+        <v>31785</v>
+      </c>
+      <c r="E251">
+        <v>5.983520059846342</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1946.34</v>
+      </c>
+      <c r="D252">
+        <v>0.002132885800674558</v>
+      </c>
+      <c r="E252">
+        <v>0.8558231693343259</v>
+      </c>
+      <c r="F252">
+        <v>1946.34</v>
+      </c>
+      <c r="G252">
+        <v>0.06762446709908546</v>
+      </c>
+      <c r="H252">
+        <v>0.549146452692803</v>
+      </c>
+      <c r="I252">
+        <v>0.03234237922355532</v>
+      </c>
+      <c r="J252">
+        <v>0.1092370458086953</v>
+      </c>
+      <c r="K252">
+        <v>0.02385190239408985</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>1166.5</v>
+      </c>
+      <c r="D253">
+        <v>0.04131884444039315</v>
+      </c>
+      <c r="E253">
+        <v>0.5753422467503697</v>
+      </c>
+      <c r="F253">
+        <v>1166.5</v>
+      </c>
+      <c r="G253">
+        <v>0.04099716898985207</v>
+      </c>
+      <c r="H253">
+        <v>0.3794953658035956</v>
+      </c>
+      <c r="I253">
+        <v>0.01589694589842111</v>
+      </c>
+      <c r="J253">
+        <v>0.08090424795402214</v>
+      </c>
+      <c r="K253">
+        <v>0.0141962000541389</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>3140.26</v>
+      </c>
+      <c r="D254">
+        <v>0.04732224536594003</v>
+      </c>
+      <c r="E254">
+        <v>1.454605510830879</v>
+      </c>
+      <c r="F254">
+        <v>3140.26</v>
+      </c>
+      <c r="G254">
+        <v>0.1099679722217843</v>
+      </c>
+      <c r="H254">
+        <v>0.9440367887844332</v>
+      </c>
+      <c r="I254">
+        <v>0.02195256573148072</v>
+      </c>
+      <c r="J254">
+        <v>0.2206105719041079</v>
+      </c>
+      <c r="K254">
+        <v>0.03884965676581487</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>1946.34</v>
+      </c>
+      <c r="D255">
+        <v>0.00318667386425659</v>
+      </c>
+      <c r="E255">
+        <v>0.8596876015304588</v>
+      </c>
+      <c r="F255">
+        <v>1946.34</v>
+      </c>
+      <c r="G255">
+        <v>0.06751361773582175</v>
+      </c>
+      <c r="H255">
+        <v>0.5507843212387524</v>
+      </c>
+      <c r="I255">
+        <v>0.03528425247175619</v>
+      </c>
+      <c r="J255">
+        <v>0.1087374041671865</v>
+      </c>
+      <c r="K255">
+        <v>0.02386209982214495</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C256">
+        <v>31785</v>
+      </c>
+      <c r="E256">
+        <v>6.185168717012275</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="51">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -2514,6 +9874,46 @@
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A212:A216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A227:A231"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="A252:A256"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/denprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/denprocessed_rand_results_test.xlsx
@@ -626,28 +626,28 @@
         <v>2259</v>
       </c>
       <c r="D2">
-        <v>0.002838376676663756</v>
+        <v>0.003099348396062851</v>
       </c>
       <c r="E2">
-        <v>1.145652286009863</v>
+        <v>1.461850028019398</v>
       </c>
       <c r="F2">
         <v>2259</v>
       </c>
       <c r="G2">
-        <v>0.0815234713954851</v>
+        <v>0.09455263894051313</v>
       </c>
       <c r="H2">
-        <v>0.6417620466090739</v>
+        <v>0.7239843839779496</v>
       </c>
       <c r="I2">
-        <v>0.09441684815101326</v>
+        <v>0.2240070682018995</v>
       </c>
       <c r="J2">
-        <v>0.2190508054336533</v>
+        <v>0.3059666785411537</v>
       </c>
       <c r="K2">
-        <v>0.0269400835968554</v>
+        <v>0.02817187272012234</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -659,28 +659,28 @@
         <v>631</v>
       </c>
       <c r="D3">
-        <v>0.1008044307818636</v>
+        <v>0.1007486316375434</v>
       </c>
       <c r="E3">
-        <v>0.6122337360866368</v>
+        <v>0.6844639610499144</v>
       </c>
       <c r="F3">
         <v>631</v>
       </c>
       <c r="G3">
-        <v>0.02458181662950665</v>
+        <v>0.0271370792761445</v>
       </c>
       <c r="H3">
-        <v>0.2941825079033151</v>
+        <v>0.31308091012761</v>
       </c>
       <c r="I3">
-        <v>0.02628511795774102</v>
+        <v>0.03509241668507457</v>
       </c>
       <c r="J3">
-        <v>0.2364770694402978</v>
+        <v>0.2774711814709008</v>
       </c>
       <c r="K3">
-        <v>0.007569119101390243</v>
+        <v>0.007966393604874611</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -689,31 +689,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="D4">
-        <v>0.09415874059777707</v>
+        <v>0.1145646297372878</v>
       </c>
       <c r="E4">
-        <v>0.6859067570185289</v>
+        <v>0.8280656086280942</v>
       </c>
       <c r="F4">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="G4">
-        <v>0.03007718699518591</v>
+        <v>0.03680296847596765</v>
       </c>
       <c r="H4">
-        <v>0.336900704074651</v>
+        <v>0.4023053646087646</v>
       </c>
       <c r="I4">
-        <v>0.02613302052486688</v>
+        <v>0.03863512258976698</v>
       </c>
       <c r="J4">
-        <v>0.2537459965096787</v>
+        <v>0.3080506366677582</v>
       </c>
       <c r="K4">
-        <v>0.009724939824081957</v>
+        <v>0.01047915313392878</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -725,28 +725,28 @@
         <v>2259</v>
       </c>
       <c r="D5">
-        <v>0.004269397351890802</v>
+        <v>0.004071842413395643</v>
       </c>
       <c r="E5">
-        <v>1.174009163980372</v>
+        <v>1.445242314599454</v>
       </c>
       <c r="F5">
         <v>2259</v>
       </c>
       <c r="G5">
-        <v>0.08384004456456751</v>
+        <v>0.09286676626652479</v>
       </c>
       <c r="H5">
-        <v>0.6492813827935606</v>
+        <v>0.7123333448544145</v>
       </c>
       <c r="I5">
-        <v>0.1082928127143532</v>
+        <v>0.2266222876496613</v>
       </c>
       <c r="J5">
-        <v>0.2208087714388967</v>
+        <v>0.3017501258291304</v>
       </c>
       <c r="K5">
-        <v>0.027721764636226</v>
+        <v>0.02738049998879433</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -758,28 +758,28 @@
         <v>843</v>
       </c>
       <c r="D6">
-        <v>0.1402907822048292</v>
+        <v>0.1413284973241389</v>
       </c>
       <c r="E6">
-        <v>0.9534848959883675</v>
+        <v>1.144778670743108</v>
       </c>
       <c r="F6">
         <v>843</v>
       </c>
       <c r="G6">
-        <v>0.03618375130463392</v>
+        <v>0.04122060397639871</v>
       </c>
       <c r="H6">
-        <v>0.4209258005721495</v>
+        <v>0.4348260699771345</v>
       </c>
       <c r="I6">
-        <v>0.1638577714329585</v>
+        <v>0.3393531036563218</v>
       </c>
       <c r="J6">
-        <v>0.2847847312223166</v>
+        <v>0.2823181990534067</v>
       </c>
       <c r="K6">
-        <v>0.01325148541945964</v>
+        <v>0.01322491047903895</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -791,7 +791,7 @@
         <v>122250</v>
       </c>
       <c r="E7">
-        <v>22.56763309496455</v>
+        <v>23.88862068532035</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -805,28 +805,28 @@
         <v>2325</v>
       </c>
       <c r="D8">
-        <v>0.003007799969054759</v>
+        <v>0.003069788217544556</v>
       </c>
       <c r="E8">
-        <v>1.318704664940014</v>
+        <v>1.546455363743007</v>
       </c>
       <c r="F8">
         <v>2325</v>
       </c>
       <c r="G8">
-        <v>0.0920410956023261</v>
+        <v>0.09828882524743676</v>
       </c>
       <c r="H8">
-        <v>0.7501755612902343</v>
+        <v>0.7944544311612844</v>
       </c>
       <c r="I8">
-        <v>0.1048155833268538</v>
+        <v>0.2120680687949061</v>
       </c>
       <c r="J8">
-        <v>0.2466679656645283</v>
+        <v>0.3219255269505084</v>
       </c>
       <c r="K8">
-        <v>0.03180224378593266</v>
+        <v>0.0294781387783587</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -838,28 +838,28 @@
         <v>1002</v>
       </c>
       <c r="D9">
-        <v>0.1258604594040662</v>
+        <v>0.1306328712962568</v>
       </c>
       <c r="E9">
-        <v>0.8127708379179239</v>
+        <v>0.9219073071144521</v>
       </c>
       <c r="F9">
         <v>1002</v>
       </c>
       <c r="G9">
-        <v>0.03808026609476656</v>
+        <v>0.04106759186834097</v>
       </c>
       <c r="H9">
-        <v>0.4411397916264832</v>
+        <v>0.4729144708253443</v>
       </c>
       <c r="I9">
-        <v>0.0331713481573388</v>
+        <v>0.04559832625091076</v>
       </c>
       <c r="J9">
-        <v>0.2500215512700379</v>
+        <v>0.3105810107663274</v>
       </c>
       <c r="K9">
-        <v>0.01249905419535935</v>
+        <v>0.01279717171564698</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -868,31 +868,31 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>3633</v>
+        <v>3578</v>
       </c>
       <c r="D10">
-        <v>0.1629926904570311</v>
+        <v>0.1551502710208297</v>
       </c>
       <c r="E10">
-        <v>2.20968470396474</v>
+        <v>2.179413402918726</v>
       </c>
       <c r="F10">
-        <v>3633</v>
+        <v>3578</v>
       </c>
       <c r="G10">
-        <v>0.1495087915100157</v>
+        <v>0.1384429661557078</v>
       </c>
       <c r="H10">
-        <v>1.371190915699117</v>
+        <v>1.287329831160605</v>
       </c>
       <c r="I10">
-        <v>0.04816645488608629</v>
+        <v>0.0587250916287303</v>
       </c>
       <c r="J10">
-        <v>0.4437918693292886</v>
+        <v>0.5194771252572536</v>
       </c>
       <c r="K10">
-        <v>0.04922811221331358</v>
+        <v>0.04343154653906822</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -904,28 +904,28 @@
         <v>2325</v>
       </c>
       <c r="D11">
-        <v>0.004333666176535189</v>
+        <v>0.004328818060457706</v>
       </c>
       <c r="E11">
-        <v>1.259816828998737</v>
+        <v>1.487140614073724</v>
       </c>
       <c r="F11">
         <v>2325</v>
       </c>
       <c r="G11">
-        <v>0.08838181081227958</v>
+        <v>0.09522184357047081</v>
       </c>
       <c r="H11">
-        <v>0.7029799957526848</v>
+        <v>0.7370280637405813</v>
       </c>
       <c r="I11">
-        <v>0.1119265193119645</v>
+        <v>0.2154956161975861</v>
       </c>
       <c r="J11">
-        <v>0.2359983713831753</v>
+        <v>0.3227867158129811</v>
       </c>
       <c r="K11">
-        <v>0.02977783663664013</v>
+        <v>0.02909201802685857</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -937,28 +937,28 @@
         <v>1564</v>
       </c>
       <c r="D12">
-        <v>0.1852784969378263</v>
+        <v>0.1795502840541303</v>
       </c>
       <c r="E12">
-        <v>1.52609447890427</v>
+        <v>1.780028450768441</v>
       </c>
       <c r="F12">
         <v>1564</v>
       </c>
       <c r="G12">
-        <v>0.06795853062067181</v>
+        <v>0.06949109956622124</v>
       </c>
       <c r="H12">
-        <v>0.7064018164528534</v>
+        <v>0.6853195149451494</v>
       </c>
       <c r="I12">
-        <v>0.3091520940652117</v>
+        <v>0.6357602667994797</v>
       </c>
       <c r="J12">
-        <v>0.352120648836717</v>
+        <v>0.3061654586344957</v>
       </c>
       <c r="K12">
-        <v>0.02566445362754166</v>
+        <v>0.02337892353534698</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,7 +970,7 @@
         <v>122250</v>
       </c>
       <c r="E13">
-        <v>22.60346971615218</v>
+        <v>24.3470804435201</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -984,28 +984,28 @@
         <v>2292</v>
       </c>
       <c r="D14">
-        <v>0.002923088322859257</v>
+        <v>0.003084568306803703</v>
       </c>
       <c r="E14">
-        <v>1.232178475474939</v>
+        <v>1.504152695881203</v>
       </c>
       <c r="F14">
         <v>2292</v>
       </c>
       <c r="G14">
-        <v>0.0867822834989056</v>
+        <v>0.09642073209397495</v>
       </c>
       <c r="H14">
-        <v>0.6959688039496541</v>
+        <v>0.759219407569617</v>
       </c>
       <c r="I14">
-        <v>0.09961621573893353</v>
+        <v>0.2180375684984028</v>
       </c>
       <c r="J14">
-        <v>0.2328593855490908</v>
+        <v>0.313946102745831</v>
       </c>
       <c r="K14">
-        <v>0.02937116369139403</v>
+        <v>0.02882500574924052</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1017,28 +1017,28 @@
         <v>816.5</v>
       </c>
       <c r="D15">
-        <v>0.1133324450929649</v>
+        <v>0.1156907514669001</v>
       </c>
       <c r="E15">
-        <v>0.7125022870022804</v>
+        <v>0.8031856340821832</v>
       </c>
       <c r="F15">
         <v>816.5</v>
       </c>
       <c r="G15">
-        <v>0.0313310413621366</v>
+        <v>0.03410233557224274</v>
       </c>
       <c r="H15">
-        <v>0.3676611497648992</v>
+        <v>0.3929976904764771</v>
       </c>
       <c r="I15">
-        <v>0.02972823305753991</v>
+        <v>0.04034537146799266</v>
       </c>
       <c r="J15">
-        <v>0.2432493103551678</v>
+        <v>0.2940260961186141</v>
       </c>
       <c r="K15">
-        <v>0.0100340866483748</v>
+        <v>0.0103817826602608</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1047,31 +1047,31 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2245</v>
+        <v>2221.5</v>
       </c>
       <c r="D16">
-        <v>0.1285757155274041</v>
+        <v>0.1348574503790587</v>
       </c>
       <c r="E16">
-        <v>1.447795730491634</v>
+        <v>1.50373950577341</v>
       </c>
       <c r="F16">
-        <v>2245</v>
+        <v>2221.5</v>
       </c>
       <c r="G16">
-        <v>0.08979298925260082</v>
+        <v>0.08762296731583774</v>
       </c>
       <c r="H16">
-        <v>0.8540458098868839</v>
+        <v>0.8448175978846848</v>
       </c>
       <c r="I16">
-        <v>0.03714973770547658</v>
+        <v>0.04868010710924864</v>
       </c>
       <c r="J16">
-        <v>0.3487689329194836</v>
+        <v>0.4137638809625059</v>
       </c>
       <c r="K16">
-        <v>0.02947652601869777</v>
+        <v>0.0269553498364985</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1083,28 +1083,28 @@
         <v>2292</v>
       </c>
       <c r="D17">
-        <v>0.004301531764212996</v>
+        <v>0.004200330236926675</v>
       </c>
       <c r="E17">
-        <v>1.216912996489555</v>
+        <v>1.466191464336589</v>
       </c>
       <c r="F17">
         <v>2292</v>
       </c>
       <c r="G17">
-        <v>0.08611092768842354</v>
+        <v>0.0940443049184978</v>
       </c>
       <c r="H17">
-        <v>0.6761306892731227</v>
+        <v>0.7246807042974979</v>
       </c>
       <c r="I17">
-        <v>0.1101096660131589</v>
+        <v>0.2210589519236237</v>
       </c>
       <c r="J17">
-        <v>0.228403571411036</v>
+        <v>0.3122684208210558</v>
       </c>
       <c r="K17">
-        <v>0.02874980063643306</v>
+        <v>0.02823625900782645</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1116,28 +1116,28 @@
         <v>1203.5</v>
       </c>
       <c r="D18">
-        <v>0.1627846395713277</v>
+        <v>0.1604393906891346</v>
       </c>
       <c r="E18">
-        <v>1.239789687446319</v>
+        <v>1.462403560755774</v>
       </c>
       <c r="F18">
         <v>1203.5</v>
       </c>
       <c r="G18">
-        <v>0.05207114096265286</v>
+        <v>0.05535585177130997</v>
       </c>
       <c r="H18">
-        <v>0.5636638085125014</v>
+        <v>0.5600727924611419</v>
       </c>
       <c r="I18">
-        <v>0.2365049327490851</v>
+        <v>0.4875566852279007</v>
       </c>
       <c r="J18">
-        <v>0.3184526900295168</v>
+        <v>0.2942418288439512</v>
       </c>
       <c r="K18">
-        <v>0.01945796952350065</v>
+        <v>0.01830191700719297</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1149,7 +1149,7 @@
         <v>122250</v>
       </c>
       <c r="E19">
-        <v>22.58555140555836</v>
+        <v>24.11785056442022</v>
       </c>
     </row>
   </sheetData>

--- a/tests/advanced/randomized_tests/denprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/denprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,7 +32,16 @@
     <t>S*-MM0</t>
   </si>
   <si>
-    <t>S*-unmerged</t>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
   </si>
   <si>
     <t>var</t>
@@ -50,7 +59,16 @@
     <t>S*-MM0ND</t>
   </si>
   <si>
-    <t>S*-unmergedND</t>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -81,9 +99,6 @@
   </si>
   <si>
     <t>run 0</t>
-  </si>
-  <si>
-    <t>run 1</t>
   </si>
   <si>
     <t>Average</t>
@@ -447,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,39 +505,57 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>333.9859999999999</v>
+        <v>344.884</v>
       </c>
       <c r="C2">
-        <v>333.9859999999999</v>
+        <v>344.884</v>
       </c>
       <c r="D2">
-        <v>333.9859999999999</v>
+        <v>344.884</v>
       </c>
       <c r="E2">
-        <v>333.9859999999999</v>
+        <v>344.884</v>
       </c>
       <c r="F2">
-        <v>333.9859999999999</v>
+        <v>344.884</v>
       </c>
       <c r="G2">
-        <v>333.9859999999999</v>
+        <v>344.884</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
+        <v>344.884</v>
+      </c>
+      <c r="I2">
+        <v>344.884</v>
+      </c>
+      <c r="J2">
+        <v>344.884</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="b">
@@ -531,45 +564,22 @@
       <c r="M2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>362.3680000000001</v>
-      </c>
-      <c r="C3">
-        <v>362.3680000000001</v>
-      </c>
-      <c r="D3">
-        <v>362.3680000000001</v>
-      </c>
-      <c r="E3">
-        <v>362.3680000000001</v>
-      </c>
-      <c r="F3">
-        <v>362.3680000000001</v>
-      </c>
-      <c r="G3">
-        <v>362.3680000000001</v>
-      </c>
-      <c r="H3">
+      <c r="N2" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="b">
+      <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="b">
+      <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="b">
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -588,66 +598,66 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2259</v>
+        <v>2391</v>
       </c>
       <c r="D2">
-        <v>0.003099348396062851</v>
+        <v>0.00727181090041995</v>
       </c>
       <c r="E2">
-        <v>1.461850028019398</v>
+        <v>1.285630288999528</v>
       </c>
       <c r="F2">
-        <v>2259</v>
+        <v>2391</v>
       </c>
       <c r="G2">
-        <v>0.09455263894051313</v>
+        <v>0.1067562084645033</v>
       </c>
       <c r="H2">
-        <v>0.7239843839779496</v>
+        <v>0.7022894150577486</v>
       </c>
       <c r="I2">
-        <v>0.2240070682018995</v>
+        <v>0.1771683748811483</v>
       </c>
       <c r="J2">
-        <v>0.3059666785411537</v>
+        <v>0.1502558821812272</v>
       </c>
       <c r="K2">
-        <v>0.02817187272012234</v>
+        <v>0.05931747145950794</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -656,31 +666,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>631</v>
+        <v>974</v>
       </c>
       <c r="D3">
-        <v>0.1007486316375434</v>
+        <v>0.1020045587792993</v>
       </c>
       <c r="E3">
-        <v>0.6844639610499144</v>
+        <v>0.7492517367936671</v>
       </c>
       <c r="F3">
-        <v>631</v>
+        <v>974</v>
       </c>
       <c r="G3">
-        <v>0.0271370792761445</v>
+        <v>0.04225847730413079</v>
       </c>
       <c r="H3">
-        <v>0.31308091012761</v>
+        <v>0.3995751333422959</v>
       </c>
       <c r="I3">
-        <v>0.03509241668507457</v>
+        <v>0.03663685824722052</v>
       </c>
       <c r="J3">
-        <v>0.2774711814709008</v>
+        <v>0.2110175522975624</v>
       </c>
       <c r="K3">
-        <v>0.007966393604874611</v>
+        <v>0.02407701360061765</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -689,31 +699,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>865</v>
+        <v>954</v>
       </c>
       <c r="D4">
-        <v>0.1145646297372878</v>
+        <v>0.09900220297276974</v>
       </c>
       <c r="E4">
-        <v>0.8280656086280942</v>
+        <v>0.7483964287675917</v>
       </c>
       <c r="F4">
-        <v>865</v>
+        <v>954</v>
       </c>
       <c r="G4">
-        <v>0.03680296847596765</v>
+        <v>0.04412139533087611</v>
       </c>
       <c r="H4">
-        <v>0.4023053646087646</v>
+        <v>0.3964269398711622</v>
       </c>
       <c r="I4">
-        <v>0.03863512258976698</v>
+        <v>0.03433856787160039</v>
       </c>
       <c r="J4">
-        <v>0.3080506366677582</v>
+        <v>0.213796395342797</v>
       </c>
       <c r="K4">
-        <v>0.01047915313392878</v>
+        <v>0.02386236749589443</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -722,31 +732,31 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2259</v>
+        <v>2391</v>
       </c>
       <c r="D5">
-        <v>0.004071842413395643</v>
+        <v>0.004496621899306774</v>
       </c>
       <c r="E5">
-        <v>1.445242314599454</v>
+        <v>1.321563827805221</v>
       </c>
       <c r="F5">
-        <v>2259</v>
+        <v>2391</v>
       </c>
       <c r="G5">
-        <v>0.09286676626652479</v>
+        <v>0.1128484178334475</v>
       </c>
       <c r="H5">
-        <v>0.7123333448544145</v>
+        <v>0.7242080359719694</v>
       </c>
       <c r="I5">
-        <v>0.2266222876496613</v>
+        <v>0.1791194975376129</v>
       </c>
       <c r="J5">
-        <v>0.3017501258291304</v>
+        <v>0.1533389040268958</v>
       </c>
       <c r="K5">
-        <v>0.02738049998879433</v>
+        <v>0.06080507813021541</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -755,408 +765,426 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>843</v>
+        <v>13037</v>
       </c>
       <c r="D6">
-        <v>0.1413284973241389</v>
+        <v>0.04990942915901542</v>
       </c>
       <c r="E6">
-        <v>1.144778670743108</v>
+        <v>16.2138977041468</v>
       </c>
       <c r="F6">
-        <v>843</v>
+        <v>13037</v>
       </c>
       <c r="G6">
-        <v>0.04122060397639871</v>
+        <v>0.7534680268727243</v>
       </c>
       <c r="H6">
-        <v>0.4348260699771345</v>
+        <v>4.529872482642531</v>
       </c>
       <c r="I6">
-        <v>0.3393531036563218</v>
+        <v>9.410527066327631</v>
       </c>
       <c r="J6">
-        <v>0.2823181990534067</v>
+        <v>0.524237553589046</v>
       </c>
       <c r="K6">
-        <v>0.01322491047903895</v>
+        <v>0.4272375297732651</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>122250</v>
+        <v>2288</v>
+      </c>
+      <c r="D7">
+        <v>0.2385306227952242</v>
       </c>
       <c r="E7">
-        <v>23.88862068532035</v>
+        <v>2.53259826079011</v>
+      </c>
+      <c r="F7">
+        <v>2288</v>
+      </c>
+      <c r="G7">
+        <v>0.1558203594759107</v>
+      </c>
+      <c r="H7">
+        <v>1.210387178696692</v>
+      </c>
+      <c r="I7">
+        <v>0.7019772818312049</v>
+      </c>
+      <c r="J7">
+        <v>0.2741571054793894</v>
+      </c>
+      <c r="K7">
+        <v>0.08365274267271161</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2325</v>
+        <v>2106</v>
       </c>
       <c r="D8">
-        <v>0.003069788217544556</v>
+        <v>0.2605231157504022</v>
       </c>
       <c r="E8">
-        <v>1.546455363743007</v>
+        <v>2.226601092144847</v>
       </c>
       <c r="F8">
-        <v>2325</v>
+        <v>2106</v>
       </c>
       <c r="G8">
-        <v>0.09828882524743676</v>
+        <v>0.1560530494898558</v>
       </c>
       <c r="H8">
-        <v>0.7944544311612844</v>
+        <v>1.066661955788732</v>
       </c>
       <c r="I8">
-        <v>0.2120680687949061</v>
+        <v>0.589735590852797</v>
       </c>
       <c r="J8">
-        <v>0.3219255269505084</v>
+        <v>0.2361914357170463</v>
       </c>
       <c r="K8">
-        <v>0.0294781387783587</v>
+        <v>0.07894348818808794</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1002</v>
+        <v>13037</v>
       </c>
       <c r="D9">
-        <v>0.1306328712962568</v>
+        <v>0.06003708811476827</v>
       </c>
       <c r="E9">
-        <v>0.9219073071144521</v>
+        <v>16.56103792693466</v>
       </c>
       <c r="F9">
-        <v>1002</v>
+        <v>13037</v>
       </c>
       <c r="G9">
-        <v>0.04106759186834097</v>
+        <v>0.7367731668055058</v>
       </c>
       <c r="H9">
-        <v>0.4729144708253443</v>
+        <v>4.55381507659331</v>
       </c>
       <c r="I9">
-        <v>0.04559832625091076</v>
+        <v>9.688437888864428</v>
       </c>
       <c r="J9">
-        <v>0.3105810107663274</v>
+        <v>0.5695325941778719</v>
       </c>
       <c r="K9">
-        <v>0.01279717171564698</v>
+        <v>0.4249156322330236</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>3578</v>
-      </c>
-      <c r="D10">
-        <v>0.1551502710208297</v>
+        <v>122250</v>
       </c>
       <c r="E10">
-        <v>2.179413402918726</v>
-      </c>
-      <c r="F10">
-        <v>3578</v>
-      </c>
-      <c r="G10">
-        <v>0.1384429661557078</v>
-      </c>
-      <c r="H10">
-        <v>1.287329831160605</v>
-      </c>
-      <c r="I10">
-        <v>0.0587250916287303</v>
-      </c>
-      <c r="J10">
-        <v>0.5194771252572536</v>
-      </c>
-      <c r="K10">
-        <v>0.04343154653906822</v>
+        <v>24.66281374776736</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2325</v>
+        <v>2391</v>
       </c>
       <c r="D11">
-        <v>0.004328818060457706</v>
+        <v>0.00727181090041995</v>
       </c>
       <c r="E11">
-        <v>1.487140614073724</v>
+        <v>1.285630288999528</v>
       </c>
       <c r="F11">
-        <v>2325</v>
+        <v>2391</v>
       </c>
       <c r="G11">
-        <v>0.09522184357047081</v>
+        <v>0.1067562084645033</v>
       </c>
       <c r="H11">
-        <v>0.7370280637405813</v>
+        <v>0.7022894150577486</v>
       </c>
       <c r="I11">
-        <v>0.2154956161975861</v>
+        <v>0.1771683748811483</v>
       </c>
       <c r="J11">
-        <v>0.3227867158129811</v>
+        <v>0.1502558821812272</v>
       </c>
       <c r="K11">
-        <v>0.02909201802685857</v>
+        <v>0.05931747145950794</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1564</v>
+        <v>974</v>
       </c>
       <c r="D12">
-        <v>0.1795502840541303</v>
+        <v>0.1020045587792993</v>
       </c>
       <c r="E12">
-        <v>1.780028450768441</v>
+        <v>0.7492517367936671</v>
       </c>
       <c r="F12">
-        <v>1564</v>
+        <v>974</v>
       </c>
       <c r="G12">
-        <v>0.06949109956622124</v>
+        <v>0.04225847730413079</v>
       </c>
       <c r="H12">
-        <v>0.6853195149451494</v>
+        <v>0.3995751333422959</v>
       </c>
       <c r="I12">
-        <v>0.6357602667994797</v>
+        <v>0.03663685824722052</v>
       </c>
       <c r="J12">
-        <v>0.3061654586344957</v>
+        <v>0.2110175522975624</v>
       </c>
       <c r="K12">
-        <v>0.02337892353534698</v>
+        <v>0.02407701360061765</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>122250</v>
+        <v>954</v>
+      </c>
+      <c r="D13">
+        <v>0.09900220297276974</v>
       </c>
       <c r="E13">
-        <v>24.3470804435201</v>
+        <v>0.7483964287675917</v>
+      </c>
+      <c r="F13">
+        <v>954</v>
+      </c>
+      <c r="G13">
+        <v>0.04412139533087611</v>
+      </c>
+      <c r="H13">
+        <v>0.3964269398711622</v>
+      </c>
+      <c r="I13">
+        <v>0.03433856787160039</v>
+      </c>
+      <c r="J13">
+        <v>0.213796395342797</v>
+      </c>
+      <c r="K13">
+        <v>0.02386236749589443</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>2292</v>
+        <v>2391</v>
       </c>
       <c r="D14">
-        <v>0.003084568306803703</v>
+        <v>0.004496621899306774</v>
       </c>
       <c r="E14">
-        <v>1.504152695881203</v>
+        <v>1.321563827805221</v>
       </c>
       <c r="F14">
-        <v>2292</v>
+        <v>2391</v>
       </c>
       <c r="G14">
-        <v>0.09642073209397495</v>
+        <v>0.1128484178334475</v>
       </c>
       <c r="H14">
-        <v>0.759219407569617</v>
+        <v>0.7242080359719694</v>
       </c>
       <c r="I14">
-        <v>0.2180375684984028</v>
+        <v>0.1791194975376129</v>
       </c>
       <c r="J14">
-        <v>0.313946102745831</v>
+        <v>0.1533389040268958</v>
       </c>
       <c r="K14">
-        <v>0.02882500574924052</v>
+        <v>0.06080507813021541</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>816.5</v>
+        <v>13037</v>
       </c>
       <c r="D15">
-        <v>0.1156907514669001</v>
+        <v>0.04990942915901542</v>
       </c>
       <c r="E15">
-        <v>0.8031856340821832</v>
+        <v>16.2138977041468</v>
       </c>
       <c r="F15">
-        <v>816.5</v>
+        <v>13037</v>
       </c>
       <c r="G15">
-        <v>0.03410233557224274</v>
+        <v>0.7534680268727243</v>
       </c>
       <c r="H15">
-        <v>0.3929976904764771</v>
+        <v>4.529872482642531</v>
       </c>
       <c r="I15">
-        <v>0.04034537146799266</v>
+        <v>9.410527066327631</v>
       </c>
       <c r="J15">
-        <v>0.2940260961186141</v>
+        <v>0.524237553589046</v>
       </c>
       <c r="K15">
-        <v>0.0103817826602608</v>
+        <v>0.4272375297732651</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>2221.5</v>
+        <v>2288</v>
       </c>
       <c r="D16">
-        <v>0.1348574503790587</v>
+        <v>0.2385306227952242</v>
       </c>
       <c r="E16">
-        <v>1.50373950577341</v>
+        <v>2.53259826079011</v>
       </c>
       <c r="F16">
-        <v>2221.5</v>
+        <v>2288</v>
       </c>
       <c r="G16">
-        <v>0.08762296731583774</v>
+        <v>0.1558203594759107</v>
       </c>
       <c r="H16">
-        <v>0.8448175978846848</v>
+        <v>1.210387178696692</v>
       </c>
       <c r="I16">
-        <v>0.04868010710924864</v>
+        <v>0.7019772818312049</v>
       </c>
       <c r="J16">
-        <v>0.4137638809625059</v>
+        <v>0.2741571054793894</v>
       </c>
       <c r="K16">
-        <v>0.0269553498364985</v>
+        <v>0.08365274267271161</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>2292</v>
+        <v>2106</v>
       </c>
       <c r="D17">
-        <v>0.004200330236926675</v>
+        <v>0.2605231157504022</v>
       </c>
       <c r="E17">
-        <v>1.466191464336589</v>
+        <v>2.226601092144847</v>
       </c>
       <c r="F17">
-        <v>2292</v>
+        <v>2106</v>
       </c>
       <c r="G17">
-        <v>0.0940443049184978</v>
+        <v>0.1560530494898558</v>
       </c>
       <c r="H17">
-        <v>0.7246807042974979</v>
+        <v>1.066661955788732</v>
       </c>
       <c r="I17">
-        <v>0.2210589519236237</v>
+        <v>0.589735590852797</v>
       </c>
       <c r="J17">
-        <v>0.3122684208210558</v>
+        <v>0.2361914357170463</v>
       </c>
       <c r="K17">
-        <v>0.02823625900782645</v>
+        <v>0.07894348818808794</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>1203.5</v>
+        <v>13037</v>
       </c>
       <c r="D18">
-        <v>0.1604393906891346</v>
+        <v>0.06003708811476827</v>
       </c>
       <c r="E18">
-        <v>1.462403560755774</v>
+        <v>16.56103792693466</v>
       </c>
       <c r="F18">
-        <v>1203.5</v>
+        <v>13037</v>
       </c>
       <c r="G18">
-        <v>0.05535585177130997</v>
+        <v>0.7367731668055058</v>
       </c>
       <c r="H18">
-        <v>0.5600727924611419</v>
+        <v>4.55381507659331</v>
       </c>
       <c r="I18">
-        <v>0.4875566852279007</v>
+        <v>9.688437888864428</v>
       </c>
       <c r="J18">
-        <v>0.2942418288439512</v>
+        <v>0.5695325941778719</v>
       </c>
       <c r="K18">
-        <v>0.01830191700719297</v>
+        <v>0.4249156322330236</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>122250</v>
       </c>
       <c r="E19">
-        <v>24.11785056442022</v>
+        <v>24.66281374776736</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
